--- a/Experiment/Experiment decision tree 1.xlsx
+++ b/Experiment/Experiment decision tree 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianmorales/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel Sarasti\git\ProjectX\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CD2608-0BA8-1E4E-9B6D-DCDDE4822554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E17CFE6-9875-4B9E-A22C-83F91B0D7103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="15840" firstSheet="2" activeTab="10" xr2:uid="{0C6FF0CF-D8F2-4F3B-8D3B-7285AD9AA1EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="6" xr2:uid="{0C6FF0CF-D8F2-4F3B-8D3B-7285AD9AA1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Integrantes" sheetId="15" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="101">
   <si>
     <t>Tratamiento #1</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Tratamiento #6</t>
   </si>
   <si>
-    <t>Decision tree our</t>
-  </si>
-  <si>
     <t>Library decision tree</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Decision tree library </t>
-  </si>
-  <si>
     <t>&gt; valor critico</t>
   </si>
   <si>
@@ -142,25 +136,12 @@
     <t>H1= La precision del arbol de decision en grandes cantidades  implementado por nosotros y la del arbol de decision de la libreria utilizada son diferentes</t>
   </si>
   <si>
-    <t xml:space="preserve">Si F &gt; Valorcritico entonces Aceptamos la Hipotesis nula (Ho)
-</t>
-  </si>
-  <si>
-    <t>Si F &lt; Valor critico entonces Rechazamos la Hipotesis nula (Ho)</t>
-  </si>
-  <si>
-    <t>Si F&lt; Valor critico entonces Rechazamos la Hipotesis nula (Ho)</t>
-  </si>
-  <si>
     <t xml:space="preserve">H0= La precision del arbol de decision en grandes cantidades entre el  implementado por nosotros y la del arbol de decision de la libreria utilizada son iguales </t>
   </si>
   <si>
     <t>Ftab&gt;Fcal</t>
   </si>
   <si>
-    <t>se acepta Hnula</t>
-  </si>
-  <si>
     <t>Ftab&lt;Fcal</t>
   </si>
   <si>
@@ -168,12 +149,6 @@
   </si>
   <si>
     <t>Ftabla</t>
-  </si>
-  <si>
-    <t>Entonces se acepta la hipotesis nula ,  como conclusion tenemos que la precision del arbol de decision implementado por nosotros y el de la libreria utilizada son iguales.</t>
-  </si>
-  <si>
-    <t>Aceptamos la hipotesis nula, ahora bien cuando se realiza el experimento en ambos arboles con la misma cantidad de datos la precision es igual.</t>
   </si>
   <si>
     <t xml:space="preserve">H0= La precision  de 100 datos del arbol de decision entre el  implementado por nosotros y la del arbol de decision de la libreria utilizada son iguales </t>
@@ -439,6 +414,22 @@
   </si>
   <si>
     <t>Conclusiones:</t>
+  </si>
+  <si>
+    <t>Our Decision tree</t>
+  </si>
+  <si>
+    <t>Se rechaza H0, ya que al menos una de las medias es diferente entre ellas, dado que F calculada está en la zona de rechazo</t>
+  </si>
+  <si>
+    <t>Si F &gt; Valor critico entonces Rechazamos la Hipotesis nula (Ho)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si F &lt; Valor critico entonces NO rechazamos la Hipotesis nula (Ho)
+</t>
+  </si>
+  <si>
+    <t>se acepta H0</t>
   </si>
 </sst>
 </file>
@@ -589,7 +580,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -618,9 +609,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -630,10 +618,29 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -649,7 +656,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -951,31 +958,31 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -988,24 +995,24 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView topLeftCell="B6" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
-    <col min="13" max="13" width="19.83203125" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>0.74199999999999999</v>
       </c>
@@ -1013,7 +1020,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>0.76200000000000001</v>
       </c>
@@ -1021,7 +1028,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>0.754</v>
       </c>
@@ -1029,10 +1036,10 @@
         <v>0.7</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>0.748</v>
       </c>
@@ -1040,10 +1047,10 @@
         <v>0.7</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>0.77</v>
       </c>
@@ -1051,7 +1058,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>0.77400000000000002</v>
       </c>
@@ -1059,10 +1066,10 @@
         <v>0.7</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>0.754</v>
       </c>
@@ -1070,7 +1077,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>0.76400000000000001</v>
       </c>
@@ -1078,10 +1085,10 @@
         <v>0.7</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>0.77800000000000002</v>
       </c>
@@ -1089,22 +1096,22 @@
         <v>0.7</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>0.73599999999999999</v>
       </c>
@@ -1112,7 +1119,7 @@
         <v>0.7</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H11" s="3">
         <v>30</v>
@@ -1127,7 +1134,7 @@
         <v>2.8936091954023043E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>0.73399999999999999</v>
       </c>
@@ -1135,7 +1142,7 @@
         <v>0.7</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H12" s="4">
         <v>30</v>
@@ -1150,7 +1157,7 @@
         <v>1.1475886013452219E-31</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>0.74399999999999999</v>
       </c>
@@ -1158,7 +1165,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>0.77400000000000002</v>
       </c>
@@ -1166,7 +1173,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>0.77600000000000002</v>
       </c>
@@ -1174,10 +1181,10 @@
         <v>0.7</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>0.76800000000000002</v>
       </c>
@@ -1185,28 +1192,28 @@
         <v>0.7</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="L16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="M16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>0.75600000000000001</v>
       </c>
@@ -1214,7 +1221,7 @@
         <v>0.7</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" s="3">
         <v>5.7908266666666749E-2</v>
@@ -1235,7 +1242,7 @@
         <v>4.0068728863327339</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>0.78800000000000003</v>
       </c>
@@ -1243,7 +1250,7 @@
         <v>0.7</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H18" s="3">
         <v>8.3914666666666821E-3</v>
@@ -1258,7 +1265,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>0.78</v>
       </c>
@@ -1273,7 +1280,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>0.76400000000000001</v>
       </c>
@@ -1281,7 +1288,7 @@
         <v>0.7</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H20" s="4">
         <v>6.629973333333343E-2</v>
@@ -1294,7 +1301,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>0.77400000000000002</v>
       </c>
@@ -1302,7 +1309,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>0.75600000000000001</v>
       </c>
@@ -1310,10 +1317,10 @@
         <v>0.7</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>0.76600000000000001</v>
       </c>
@@ -1321,10 +1328,10 @@
         <v>0.7</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>0.77400000000000002</v>
       </c>
@@ -1332,11 +1339,11 @@
         <v>0.7</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>0.72</v>
       </c>
@@ -1344,7 +1351,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>0.78</v>
       </c>
@@ -1352,10 +1359,10 @@
         <v>0.7</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>0.78200000000000003</v>
       </c>
@@ -1363,7 +1370,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>0.77400000000000002</v>
       </c>
@@ -1371,7 +1378,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>0.73199999999999998</v>
       </c>
@@ -1379,7 +1386,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>0.77</v>
       </c>
@@ -1387,7 +1394,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>0.77</v>
       </c>
@@ -1404,15 +1411,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8928CADD-56F3-5841-AB6E-243FB9C75558}">
   <dimension ref="D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1422,160 +1429,274 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEBEFF7-463C-1843-93DF-7A70EFFF26D0}">
-  <dimension ref="B5:B46"/>
+  <dimension ref="B5:S46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+    <row r="5" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+    </row>
+    <row r="8" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+    </row>
+    <row r="9" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+    </row>
+    <row r="10" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+    </row>
+    <row r="11" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+    </row>
+    <row r="12" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+    </row>
+    <row r="13" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+    </row>
+    <row r="15" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="14" t="s">
+    <row r="19" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="14" t="s">
+    <row r="20" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
-    </row>
-    <row r="12" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="14" t="s">
+    <row r="21" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="15"/>
-    </row>
-    <row r="14" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="14" t="s">
+    <row r="22" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="15"/>
-    </row>
-    <row r="17" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="21" t="s">
+    <row r="23" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="21" t="s">
+    <row r="24" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="21" t="s">
+    <row r="25" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="20"/>
+    </row>
+    <row r="26" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="22" t="s">
+    <row r="28" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="14"/>
+    </row>
+    <row r="29" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="22" t="s">
+    <row r="30" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="22" t="s">
+    <row r="31" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="21" t="s">
+    <row r="32" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="19"/>
+    </row>
+    <row r="33" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="21" t="s">
+    <row r="35" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="21" t="s">
+    <row r="36" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="21" t="s">
+    <row r="37" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="15"/>
     </row>
-    <row r="42" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B8:S9"/>
+    <mergeCell ref="B7:S7"/>
+    <mergeCell ref="B10:S10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1585,48 +1706,48 @@
   <dimension ref="C3:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C3" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C4" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="18">
+    <row r="3" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C5" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="18">
+    <row r="5" spans="3:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C5" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="17" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C9" s="17">
         <v>100</v>
       </c>
@@ -1634,7 +1755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" s="17">
         <v>200</v>
       </c>
@@ -1642,7 +1763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" s="17">
         <v>300</v>
       </c>
@@ -1660,134 +1781,134 @@
   <dimension ref="B3:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="23">
+        <v>61</v>
+      </c>
+      <c r="C4" s="22">
         <v>100</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>1</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>100</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="23">
         <v>0.76</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="23">
+        <v>61</v>
+      </c>
+      <c r="C5" s="22">
         <v>200</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <v>2</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>100</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <v>0.79</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="23">
+        <v>61</v>
+      </c>
+      <c r="C6" s="22">
         <v>300</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>3</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>100</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <v>0.76</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="23">
+        <v>62</v>
+      </c>
+      <c r="C7" s="22">
         <v>100</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <v>4</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>100</v>
       </c>
-      <c r="F7" s="24">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="23">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="23">
+        <v>62</v>
+      </c>
+      <c r="C8" s="22">
         <v>200</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <v>5</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>100</v>
       </c>
-      <c r="F8" s="24">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F8" s="23">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="23">
+        <v>62</v>
+      </c>
+      <c r="C9" s="22">
         <v>300</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>6</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>100</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="23">
         <v>0.7</v>
       </c>
     </row>
@@ -1801,756 +1922,756 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.5" style="1"/>
+    <col min="1" max="1" width="31.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="26">
-        <v>0.7</v>
-      </c>
-      <c r="B2" s="26">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="B2" s="25">
         <v>0.78600000000000003</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="25">
         <v>0.74199999999999999</v>
       </c>
-      <c r="D2" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E2" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F2" s="26">
+      <c r="D2" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E2" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F2" s="25">
         <v>0.7</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="26">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
         <v>0.77</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="25">
         <v>0.81</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>0.76200000000000001</v>
       </c>
-      <c r="D3" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E3" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F3" s="26">
+      <c r="D3" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E3" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F3" s="25">
         <v>0.7</v>
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="26">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
         <v>0.77</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>0.80800000000000005</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <v>0.754</v>
       </c>
-      <c r="D4" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E4" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F4" s="26">
+      <c r="D4" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F4" s="25">
         <v>0.7</v>
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="26">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
         <v>0.73</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>0.78800000000000003</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>0.748</v>
       </c>
-      <c r="D5" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E5" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F5" s="26">
+      <c r="D5" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F5" s="25">
         <v>0.7</v>
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
         <v>0.76</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>0.79400000000000004</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <v>0.77</v>
       </c>
-      <c r="D6" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E6" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F6" s="26">
+      <c r="D6" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F6" s="25">
         <v>0.7</v>
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="26">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
         <v>0.72</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>0.82</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <v>0.77400000000000002</v>
       </c>
-      <c r="D7" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E7" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F7" s="26">
+      <c r="D7" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F7" s="25">
         <v>0.7</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="26">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
         <v>0.75</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>0.78200000000000003</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <v>0.754</v>
       </c>
-      <c r="D8" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E8" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F8" s="26">
+      <c r="D8" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F8" s="25">
         <v>0.7</v>
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="26">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
         <v>0.76</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>0.8</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <v>0.76400000000000001</v>
       </c>
-      <c r="D9" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E9" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F9" s="26">
+      <c r="D9" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F9" s="25">
         <v>0.7</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="B10" s="26">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="B10" s="25">
         <v>0.8</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <v>0.77800000000000002</v>
       </c>
-      <c r="D10" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E10" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F10" s="26">
+      <c r="D10" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F10" s="25">
         <v>0.7</v>
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="26">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
         <v>0.8</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>0.80600000000000005</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="25">
         <v>0.73599999999999999</v>
       </c>
-      <c r="D11" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E11" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F11" s="26">
+      <c r="D11" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F11" s="25">
         <v>0.7</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="26">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
         <v>0.78</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>0.8</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <v>0.73399999999999999</v>
       </c>
-      <c r="D12" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E12" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F12" s="26">
+      <c r="D12" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F12" s="25">
         <v>0.7</v>
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="26">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="25">
         <v>0.75</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <v>0.79</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <v>0.74399999999999999</v>
       </c>
-      <c r="D13" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E13" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F13" s="26">
+      <c r="D13" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F13" s="25">
         <v>0.7</v>
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="26">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
         <v>0.8</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>0.79</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <v>0.77400000000000002</v>
       </c>
-      <c r="D14" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E14" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F14" s="26">
+      <c r="D14" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F14" s="25">
         <v>0.7</v>
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="26">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
         <v>0.78</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="25">
         <v>0.79</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="25">
         <v>0.77600000000000002</v>
       </c>
-      <c r="D15" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E15" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F15" s="26">
+      <c r="D15" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F15" s="25">
         <v>0.7</v>
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="26">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
         <v>0.77</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>0.79</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="25">
         <v>0.76800000000000002</v>
       </c>
-      <c r="D16" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E16" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F16" s="26">
+      <c r="D16" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F16" s="25">
         <v>0.7</v>
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="26">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
         <v>0.76</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>0.8</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="25">
         <v>0.75600000000000001</v>
       </c>
-      <c r="D17" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E17" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F17" s="26">
+      <c r="D17" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F17" s="25">
         <v>0.7</v>
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="26">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
         <v>0.73</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <v>0.79600000000000004</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="25">
         <v>0.78800000000000003</v>
       </c>
-      <c r="D18" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E18" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F18" s="26">
+      <c r="D18" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F18" s="25">
         <v>0.7</v>
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="26">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
         <v>0.76</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="25">
         <v>0.79600000000000004</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="25">
         <v>0.78</v>
       </c>
-      <c r="D19" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E19" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F19" s="26">
+      <c r="D19" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F19" s="25">
         <v>0.7</v>
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="26">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
         <v>0.76</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <v>0.79800000000000004</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="25">
         <v>0.76400000000000001</v>
       </c>
-      <c r="D20" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E20" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F20" s="26">
+      <c r="D20" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F20" s="25">
         <v>0.7</v>
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="26">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
         <v>0.72</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="25">
         <v>0.78800000000000003</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="25">
         <v>0.77400000000000002</v>
       </c>
-      <c r="D21" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E21" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F21" s="26">
+      <c r="D21" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E21" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F21" s="25">
         <v>0.7</v>
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="26">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
         <v>0.8</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="25">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="25">
         <v>0.75600000000000001</v>
       </c>
-      <c r="D22" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E22" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F22" s="26">
+      <c r="D22" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E22" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F22" s="25">
         <v>0.7</v>
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="26">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
         <v>0.76</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="25">
         <v>0.77600000000000002</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="25">
         <v>0.76600000000000001</v>
       </c>
-      <c r="D23" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E23" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F23" s="26">
+      <c r="D23" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E23" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F23" s="25">
         <v>0.7</v>
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="26">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
         <v>0.76</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="25">
         <v>0.80600000000000005</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="25">
         <v>0.77400000000000002</v>
       </c>
-      <c r="D24" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E24" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F24" s="26">
+      <c r="D24" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E24" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F24" s="25">
         <v>0.7</v>
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="26">
-        <v>0.7</v>
-      </c>
-      <c r="B25" s="26">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="B25" s="25">
         <v>0.77800000000000002</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="25">
         <v>0.72</v>
       </c>
-      <c r="D25" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E25" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F25" s="26">
+      <c r="D25" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E25" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F25" s="25">
         <v>0.7</v>
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="B26" s="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="B26" s="25">
         <v>0.77600000000000002</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="25">
         <v>0.78</v>
       </c>
-      <c r="D26" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E26" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F26" s="26">
+      <c r="D26" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E26" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F26" s="25">
         <v>0.7</v>
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="26">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
         <v>0.79</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="25">
         <v>0.78200000000000003</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="25">
         <v>0.78200000000000003</v>
       </c>
-      <c r="D27" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E27" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F27" s="26">
+      <c r="D27" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E27" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F27" s="25">
         <v>0.7</v>
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="26">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
         <v>0.76</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="25">
         <v>0.77</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="25">
         <v>0.77400000000000002</v>
       </c>
-      <c r="D28" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E28" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F28" s="26">
+      <c r="D28" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E28" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F28" s="25">
         <v>0.7</v>
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="26">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
         <v>0.8</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="25">
         <v>0.79800000000000004</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="25">
         <v>0.73199999999999998</v>
       </c>
-      <c r="D29" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E29" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F29" s="26">
+      <c r="D29" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E29" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F29" s="25">
         <v>0.7</v>
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="26">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
         <v>0.72</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="25">
         <v>0.80600000000000005</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="25">
         <v>0.77</v>
       </c>
-      <c r="D30" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E30" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F30" s="26">
+      <c r="D30" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E30" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F30" s="25">
         <v>0.7</v>
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="26">
+    <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25">
         <v>0.73</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="25">
         <v>0.78800000000000003</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="25">
         <v>0.77</v>
       </c>
-      <c r="D31" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="E31" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="F31" s="26">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="27">
+      <c r="D31" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="E31" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="F31" s="25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="26">
         <f>AVERAGE(A2:A31)</f>
         <v>0.75566666666666671</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B32" s="26">
         <f t="shared" ref="B32:E32" si="0">AVERAGE(B2:B31)</f>
         <v>0.7941999999999998</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="26">
         <f t="shared" si="0"/>
         <v>0.76213333333333333</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="26">
         <f t="shared" si="0"/>
         <v>0.73999999999999966</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="26">
         <f t="shared" si="0"/>
         <v>0.73999999999999966</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F32" s="26">
         <f>AVERAGE(F2:F31)</f>
         <v>0.69999999999999962</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
@@ -2564,18 +2685,18 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="16" max="16" width="11.83203125" customWidth="1"/>
-    <col min="17" max="17" width="13.1640625" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B1" s="12"/>
       <c r="D1" s="12" t="s">
@@ -2599,7 +2720,7 @@
       </c>
       <c r="Q1" s="12"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="D2" s="3"/>
@@ -2613,541 +2734,541 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3">
         <v>0.75566666666666671</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E3" s="3">
         <v>0.7941999999999998</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H3" s="3">
         <v>0.76213333333333333</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K3" s="3">
         <v>0.73999999999999966</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N3" s="3">
         <v>0.73999999999999966</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="3">
         <v>0.69999999999999962</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3">
         <v>5.2013113583733233E-3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E4" s="3">
         <v>2.1832170715733218E-3</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H4" s="3">
         <v>3.1056986306907414E-3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K4" s="3">
         <v>6.1848972002915346E-17</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N4" s="3">
         <v>6.1848972002915346E-17</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="3">
         <v>6.1848972002915346E-17</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3">
         <v>0.76</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E5" s="3">
         <v>0.79500000000000004</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H5" s="3">
         <v>0.76700000000000002</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K5" s="3">
         <v>0.74</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="N5" s="3">
         <v>0.74</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="3">
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3">
         <v>0.76</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E6" s="3">
         <v>0.8</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H6" s="3">
         <v>0.77400000000000002</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K6" s="3">
         <v>0.74</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N6" s="3">
         <v>0.74</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="Q6" s="3">
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3">
         <v>2.8488755595889065E-2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3">
         <v>1.1957972380310792E-2</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H7" s="3">
         <v>1.7010611968422254E-2</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="K7" s="3">
         <v>3.3876077124502211E-16</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="N7" s="3">
         <v>3.3876077124502211E-16</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="3">
         <v>3.3876077124502211E-16</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B8" s="3">
         <v>8.1160919540230049E-4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E8" s="3">
         <v>1.4299310344827577E-4</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H8" s="3">
         <v>2.8936091954023043E-4</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="K8" s="3">
         <v>1.1475886013452219E-31</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="N8" s="3">
         <v>1.1475886013452219E-31</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="3">
         <v>1.1475886013452219E-31</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3">
         <v>-0.55814879991921806</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E9" s="3">
         <v>-0.34100428985656839</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H9" s="3">
         <v>-8.8669319491055276E-2</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K9" s="3">
         <v>-2.1481481481481479</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="N9" s="3">
         <v>-2.1481481481481479</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="3">
         <v>-2.1481481481481479</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3">
         <v>-0.1798931406544835</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3">
         <v>3.5946977786052478E-2</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H10" s="3">
         <v>-0.80653380231733929</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K10" s="3">
         <v>1.0534200859823297</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N10" s="3">
         <v>1.0534200859823297</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="3">
         <v>1.0534200859823297</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B11" s="3">
         <v>0.10000000000000009</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E11" s="3">
         <v>4.9999999999999933E-2</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H11" s="3">
         <v>6.800000000000006E-2</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="N11" s="3">
         <v>0</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B12" s="3">
         <v>0.7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E12" s="3">
         <v>0.77</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H12" s="3">
         <v>0.72</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K12" s="3">
         <v>0.74</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="N12" s="3">
         <v>0.74</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="Q12" s="3">
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B13" s="3">
         <v>0.8</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E13" s="3">
         <v>0.82</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H13" s="3">
         <v>0.78800000000000003</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K13" s="3">
         <v>0.74</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N13" s="3">
         <v>0.74</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="3">
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3">
         <v>22.67</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="3">
         <v>23.825999999999993</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="3">
         <v>22.864000000000001</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K14" s="3">
         <v>22.199999999999989</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N14" s="3">
         <v>22.199999999999989</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="3">
         <v>20.999999999999989</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="3">
         <v>30</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="3">
         <v>30</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" s="3">
         <v>30</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K15" s="3">
         <v>30</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N15" s="3">
         <v>30</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B16" s="4">
         <v>1.0637876168106637E-2</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E16" s="4">
         <v>4.4651802699919134E-3</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H16" s="4">
         <v>6.3518668990196524E-3</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K16" s="4">
         <v>1.2649535087579814E-16</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N16" s="4">
         <v>1.2649535087579814E-16</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="Q16" s="4">
         <v>1.2649535087579814E-16</v>
       </c>
     </row>
-    <row r="21" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P21" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3159,43 +3280,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEE8415-32AE-F848-8F39-47C6574DD2E9}">
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView zoomScale="66" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0.77</v>
       </c>
@@ -3203,7 +3324,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.77</v>
       </c>
@@ -3211,10 +3332,10 @@
         <v>0.74</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.73</v>
       </c>
@@ -3222,10 +3343,10 @@
         <v>0.74</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0.76</v>
       </c>
@@ -3233,7 +3354,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>0.72</v>
       </c>
@@ -3241,7 +3362,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>0.75</v>
       </c>
@@ -3249,10 +3370,10 @@
         <v>0.74</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0.76</v>
       </c>
@@ -3260,28 +3381,28 @@
         <v>0.74</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="N9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0.74</v>
       </c>
@@ -3289,7 +3410,7 @@
         <v>0.74</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="G10" s="3">
         <v>90</v>
@@ -3304,13 +3425,13 @@
         <v>6.9240449438202347E-4</v>
       </c>
       <c r="N10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="O10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>0.8</v>
       </c>
@@ -3318,7 +3439,7 @@
         <v>0.74</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="G11" s="4">
         <v>90</v>
@@ -3333,7 +3454,7 @@
         <v>3.5955056179775365E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>0.78</v>
       </c>
@@ -3341,7 +3462,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>0.75</v>
       </c>
@@ -3349,7 +3470,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>0.8</v>
       </c>
@@ -3357,10 +3478,10 @@
         <v>0.74</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>0.78</v>
       </c>
@@ -3368,28 +3489,28 @@
         <v>0.74</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="J15" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>0.77</v>
       </c>
@@ -3397,7 +3518,7 @@
         <v>0.74</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" s="3">
         <v>8.7120000000000183E-2</v>
@@ -3418,7 +3539,7 @@
         <v>3.8942321312897401</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.76</v>
       </c>
@@ -3426,7 +3547,7 @@
         <v>0.74</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" s="3">
         <v>9.3624000000000165E-2</v>
@@ -3441,7 +3562,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.73</v>
       </c>
@@ -3456,7 +3577,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>0.76</v>
       </c>
@@ -3464,7 +3585,7 @@
         <v>0.74</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" s="4">
         <v>0.18074400000000035</v>
@@ -3477,7 +3598,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.76</v>
       </c>
@@ -3485,7 +3606,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.72</v>
       </c>
@@ -3493,10 +3614,10 @@
         <v>0.74</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.8</v>
       </c>
@@ -3504,10 +3625,10 @@
         <v>0.74</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0.76</v>
       </c>
@@ -3515,13 +3636,13 @@
         <v>0.74</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.76</v>
       </c>
@@ -3532,13 +3653,13 @@
         <v>165.6344527</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H24" s="10">
         <v>3.8942321312897401</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.7</v>
       </c>
@@ -3546,7 +3667,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.74</v>
       </c>
@@ -3554,10 +3675,10 @@
         <v>0.74</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.79</v>
       </c>
@@ -3565,7 +3686,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0.76</v>
       </c>
@@ -3573,167 +3694,307 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.8</v>
       </c>
       <c r="B29" s="2">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>0.72</v>
       </c>
       <c r="B30" s="2">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>0.73</v>
       </c>
       <c r="B31" s="2">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>0.78600000000000003</v>
       </c>
       <c r="B32" s="2">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>0.81</v>
       </c>
       <c r="B33" s="2">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>0.80800000000000005</v>
       </c>
       <c r="B34" s="2">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>0.78800000000000003</v>
       </c>
       <c r="B35" s="2">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>0.79400000000000004</v>
       </c>
       <c r="B36" s="2">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>0.82</v>
       </c>
       <c r="B37" s="2">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>0.78200000000000003</v>
       </c>
       <c r="B38" s="2">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>0.8</v>
       </c>
       <c r="B39" s="2">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>0.8</v>
       </c>
       <c r="B40" s="2">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>0.80600000000000005</v>
       </c>
       <c r="B41" s="2">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>0.8</v>
       </c>
       <c r="B42" s="2">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>0.79</v>
       </c>
       <c r="B43" s="2">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>0.79</v>
       </c>
       <c r="B44" s="2">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>0.79</v>
       </c>
       <c r="B45" s="2">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>0.79</v>
       </c>
       <c r="B46" s="2">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>0.8</v>
       </c>
       <c r="B47" s="2">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>0.79600000000000004</v>
       </c>
       <c r="B48" s="2">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>0.79600000000000004</v>
       </c>
@@ -3741,7 +4002,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>0.79800000000000004</v>
       </c>
@@ -3749,7 +4010,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>0.78800000000000003</v>
       </c>
@@ -3757,7 +4018,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>0.81399999999999995</v>
       </c>
@@ -3765,7 +4026,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>0.77600000000000002</v>
       </c>
@@ -3773,7 +4034,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>0.80600000000000005</v>
       </c>
@@ -3781,7 +4042,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>0.77800000000000002</v>
       </c>
@@ -3789,7 +4050,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>0.77600000000000002</v>
       </c>
@@ -3797,7 +4058,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>0.78200000000000003</v>
       </c>
@@ -3805,7 +4066,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>0.77</v>
       </c>
@@ -3813,7 +4074,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>0.79800000000000004</v>
       </c>
@@ -3821,7 +4082,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>0.80600000000000005</v>
       </c>
@@ -3829,7 +4090,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>0.78800000000000003</v>
       </c>
@@ -3837,7 +4098,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>0.74199999999999999</v>
       </c>
@@ -3845,7 +4106,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>0.76200000000000001</v>
       </c>
@@ -3853,7 +4114,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>0.754</v>
       </c>
@@ -3861,7 +4122,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>0.748</v>
       </c>
@@ -3869,7 +4130,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>0.77</v>
       </c>
@@ -3877,7 +4138,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>0.77400000000000002</v>
       </c>
@@ -3885,7 +4146,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>0.754</v>
       </c>
@@ -3893,7 +4154,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>0.76400000000000001</v>
       </c>
@@ -3901,7 +4162,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>0.77800000000000002</v>
       </c>
@@ -3909,7 +4170,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>0.73599999999999999</v>
       </c>
@@ -3917,7 +4178,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>0.73399999999999999</v>
       </c>
@@ -3925,7 +4186,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>0.74399999999999999</v>
       </c>
@@ -3933,7 +4194,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>0.77400000000000002</v>
       </c>
@@ -3941,7 +4202,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>0.77600000000000002</v>
       </c>
@@ -3949,7 +4210,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>0.76800000000000002</v>
       </c>
@@ -3957,7 +4218,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>0.75600000000000001</v>
       </c>
@@ -3965,7 +4226,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>0.78800000000000003</v>
       </c>
@@ -3973,7 +4234,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>0.78</v>
       </c>
@@ -3981,7 +4242,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>0.76400000000000001</v>
       </c>
@@ -3989,7 +4250,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>0.77400000000000002</v>
       </c>
@@ -3997,7 +4258,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>0.75600000000000001</v>
       </c>
@@ -4005,7 +4266,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>0.76600000000000001</v>
       </c>
@@ -4013,7 +4274,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>0.77400000000000002</v>
       </c>
@@ -4021,7 +4282,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>0.72</v>
       </c>
@@ -4029,7 +4290,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>0.78</v>
       </c>
@@ -4037,7 +4298,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>0.78200000000000003</v>
       </c>
@@ -4045,7 +4306,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>0.77400000000000002</v>
       </c>
@@ -4053,7 +4314,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>0.73199999999999998</v>
       </c>
@@ -4061,7 +4322,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>0.77</v>
       </c>
@@ -4069,7 +4330,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>0.77</v>
       </c>
@@ -4087,25 +4348,25 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0.7</v>
       </c>
@@ -4113,10 +4374,10 @@
         <v>0.74</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0.77</v>
       </c>
@@ -4124,7 +4385,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.77</v>
       </c>
@@ -4132,10 +4393,10 @@
         <v>0.74</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.73</v>
       </c>
@@ -4143,10 +4404,10 @@
         <v>0.74</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0.76</v>
       </c>
@@ -4154,7 +4415,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>0.72</v>
       </c>
@@ -4162,10 +4423,10 @@
         <v>0.74</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>0.75</v>
       </c>
@@ -4173,7 +4434,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>0.76</v>
       </c>
@@ -4181,33 +4442,33 @@
         <v>0.74</v>
       </c>
       <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>0.8</v>
       </c>
@@ -4215,7 +4476,7 @@
         <v>0.74</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H11" s="3">
         <v>30</v>
@@ -4230,7 +4491,7 @@
         <v>8.1160919540230049E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>0.78</v>
       </c>
@@ -4238,7 +4499,7 @@
         <v>0.74</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H12" s="4">
         <v>30</v>
@@ -4253,7 +4514,7 @@
         <v>1.1475886013452219E-31</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>0.75</v>
       </c>
@@ -4261,7 +4522,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>0.8</v>
       </c>
@@ -4269,7 +4530,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>0.78</v>
       </c>
@@ -4277,10 +4538,10 @@
         <v>0.74</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>0.77</v>
       </c>
@@ -4288,28 +4549,28 @@
         <v>0.74</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="L16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="M16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.76</v>
       </c>
@@ -4317,7 +4578,7 @@
         <v>0.74</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" s="3">
         <v>3.6816666666666595E-3</v>
@@ -4338,7 +4599,7 @@
         <v>4.0068728863327339</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.73</v>
       </c>
@@ -4346,7 +4607,7 @@
         <v>0.74</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H18" s="3">
         <v>2.3536666666666713E-2</v>
@@ -4361,7 +4622,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.76</v>
       </c>
@@ -4376,7 +4637,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>0.76</v>
       </c>
@@ -4384,7 +4645,7 @@
         <v>0.74</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H20" s="4">
         <v>2.7218333333333372E-2</v>
@@ -4397,7 +4658,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.72</v>
       </c>
@@ -4405,7 +4666,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.8</v>
       </c>
@@ -4413,10 +4674,10 @@
         <v>0.74</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0.76</v>
       </c>
@@ -4424,10 +4685,10 @@
         <v>0.74</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.76</v>
       </c>
@@ -4435,11 +4696,11 @@
         <v>0.74</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.7</v>
       </c>
@@ -4447,7 +4708,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.74</v>
       </c>
@@ -4455,10 +4716,10 @@
         <v>0.74</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.79</v>
       </c>
@@ -4466,7 +4727,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0.76</v>
       </c>
@@ -4474,7 +4735,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.8</v>
       </c>
@@ -4482,7 +4743,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>0.72</v>
       </c>
@@ -4490,7 +4751,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>0.73</v>
       </c>
@@ -4508,29 +4769,29 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="26.5" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>0.78600000000000003</v>
       </c>
@@ -4538,7 +4799,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>0.81</v>
       </c>
@@ -4546,7 +4807,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>0.80800000000000005</v>
       </c>
@@ -4554,10 +4815,10 @@
         <v>0.74</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>0.78800000000000003</v>
       </c>
@@ -4565,10 +4826,10 @@
         <v>0.74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>0.79400000000000004</v>
       </c>
@@ -4576,7 +4837,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>0.82</v>
       </c>
@@ -4584,10 +4845,10 @@
         <v>0.74</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>0.78200000000000003</v>
       </c>
@@ -4595,7 +4856,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>0.8</v>
       </c>
@@ -4603,10 +4864,10 @@
         <v>0.74</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>0.8</v>
       </c>
@@ -4614,22 +4875,22 @@
         <v>0.74</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>0.80600000000000005</v>
       </c>
@@ -4637,7 +4898,7 @@
         <v>0.74</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H11" s="3">
         <v>30</v>
@@ -4652,7 +4913,7 @@
         <v>1.4299310344827577E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>0.8</v>
       </c>
@@ -4660,7 +4921,7 @@
         <v>0.74</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H12" s="4">
         <v>30</v>
@@ -4675,7 +4936,7 @@
         <v>1.1475886013452219E-31</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>0.79</v>
       </c>
@@ -4683,7 +4944,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>0.79</v>
       </c>
@@ -4691,7 +4952,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>0.79</v>
       </c>
@@ -4699,10 +4960,10 @@
         <v>0.74</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>0.79</v>
       </c>
@@ -4710,28 +4971,28 @@
         <v>0.74</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="L16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="M16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>0.8</v>
       </c>
@@ -4739,7 +5000,7 @@
         <v>0.74</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" s="3">
         <v>4.4064600000000093E-2</v>
@@ -4760,7 +5021,7 @@
         <v>4.0068728863327339</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>0.79600000000000004</v>
       </c>
@@ -4768,7 +5029,7 @@
         <v>0.74</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H18" s="3">
         <v>4.1467999999999974E-3</v>
@@ -4783,7 +5044,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>0.79600000000000004</v>
       </c>
@@ -4798,7 +5059,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>0.79800000000000004</v>
       </c>
@@ -4806,7 +5067,7 @@
         <v>0.74</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H20" s="4">
         <v>4.8211400000000092E-2</v>
@@ -4819,7 +5080,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>0.78800000000000003</v>
       </c>
@@ -4827,7 +5088,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>0.81399999999999995</v>
       </c>
@@ -4835,7 +5096,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>0.77600000000000002</v>
       </c>
@@ -4843,7 +5104,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>0.80600000000000005</v>
       </c>
@@ -4851,10 +5112,10 @@
         <v>0.74</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>0.77800000000000002</v>
       </c>
@@ -4862,10 +5123,10 @@
         <v>0.74</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>0.77600000000000002</v>
       </c>
@@ -4873,10 +5134,10 @@
         <v>0.74</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>0.78200000000000003</v>
       </c>
@@ -4884,7 +5145,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>0.77</v>
       </c>
@@ -4892,10 +5153,10 @@
         <v>0.74</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>0.79800000000000004</v>
       </c>
@@ -4903,7 +5164,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>0.80600000000000005</v>
       </c>
@@ -4911,7 +5172,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>0.78800000000000003</v>
       </c>

--- a/Experiment/Experiment decision tree 1.xlsx
+++ b/Experiment/Experiment decision tree 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel Sarasti\git\ProjectX\Experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianmorales/Desktop/ProjectX/Experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E17CFE6-9875-4B9E-A22C-83F91B0D7103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FACCAE8-4FD0-E344-87BC-9495D97CC428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="6" xr2:uid="{0C6FF0CF-D8F2-4F3B-8D3B-7285AD9AA1EE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" firstSheet="2" activeTab="10" xr2:uid="{0C6FF0CF-D8F2-4F3B-8D3B-7285AD9AA1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Integrantes" sheetId="15" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="123">
   <si>
     <t>Tratamiento #1</t>
   </si>
@@ -431,12 +431,78 @@
   <si>
     <t>se acepta H0</t>
   </si>
+  <si>
+    <t>Ho: U1=U2=U3</t>
+  </si>
+  <si>
+    <t>H1: Por lo menos un par de medias es diferente</t>
+  </si>
+  <si>
+    <t>Post annova</t>
+  </si>
+  <si>
+    <t>n1</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>n-k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alfa </t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>margen de error</t>
+  </si>
+  <si>
+    <t>library decision tree</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Limite inferior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limite superior </t>
+  </si>
+  <si>
+    <t>Hay diferencia entre las medias</t>
+  </si>
+  <si>
+    <t>La mejor precision es el del our decision tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H0= La precision  de 300 datos del arbol de decision entre el  implementado por nosotros y la del arbol de decision de la libreria utilizada son iguales </t>
+  </si>
+  <si>
+    <t>H1= La precision  de 300 datos del arbol de decision entre el  implementado por nosotros y la del arbol de decision de la libreria utilizada son  diferentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para realizar el experimento tuvimos como variables de estudio la cantidad datos para predecir y el tipo de árbol de decisión usado, comparando la precisión de cada repetición , en base a esto con los resultados que nos arrojo el experimento y u una gran cantidad usando la tecnica de ANOVA,  nos dio como resultado que para una gran cantidad de datos a predecir es mas preciso el arbol de decision implementado por nosotros que el de la libreria , no obstante esto ocurrio cuando evaluamos una entrada pequeña, mediana y todo el dataset.        </t>
+  </si>
+  <si>
+    <t>Otra conclusion que observamos es que el árbol de decisión de la libreria  siempre tiene el mismo porcentaje de precisión para todos sus intentos , volviendose constante.</t>
+  </si>
+  <si>
+    <t>La varianza del arbol de decision de la libreria es mucho menor a la del árbol implementado por nosotros, haciendo que su porcentaje de acierto sea mas constante , pero nuestro árbol tiene una mayor varianza, teniendo como resultado una precisión mas favorable.</t>
+  </si>
+  <si>
+    <t>Observamos que cuando el algoritmo de la libreria  realiza la predición sobre una gran cantidad de datos , el porcentaje de precision  tiende a disminuir.</t>
+  </si>
+  <si>
+    <t>Analizamos  que el algoritmo implementado por nosotros  cuando realiza una prediccion a pequeños, medianos y grandes cantidades de datos el promedio de precision  se mantiene por encima del 75%.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,20 +527,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -517,8 +569,61 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,6 +634,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -580,7 +691,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -603,44 +714,65 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -655,8 +787,1892 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t>Comparación entre la precisión de los tratamientos </a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos experimento'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tratamiento #1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Datos experimento'!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0%">
+                  <c:v>0.75566666666666671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D2FC-3142-9320-7B6C9ACA0F9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos experimento'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tratamiento #2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Datos experimento'!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.78600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.80600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.79600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.79600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.79800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.81399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.77600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.80600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.77600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.79800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.80600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.78800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0%">
+                  <c:v>0.7941999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D2FC-3142-9320-7B6C9ACA0F9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos experimento'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tratamiento #3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Datos experimento'!$C$2:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.74199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.754</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.748</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.754</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.74399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.77400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.77600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.78800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.76400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.77400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.75600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.76600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.77400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.77400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.73199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0%">
+                  <c:v>0.76213333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D2FC-3142-9320-7B6C9ACA0F9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos experimento'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tratamiento #4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Datos experimento'!$D$2:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0%">
+                  <c:v>0.73999999999999966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D2FC-3142-9320-7B6C9ACA0F9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos experimento'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tratamiento #5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Datos experimento'!$E$2:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0%">
+                  <c:v>0.73999999999999966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D2FC-3142-9320-7B6C9ACA0F9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos experimento'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tratamiento #6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Datos experimento'!$F$2:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0%">
+                  <c:v>0.69999999999999962</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D2FC-3142-9320-7B6C9ACA0F9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="511682160"/>
+        <c:axId val="413689712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="511682160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413689712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="413689712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511682160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>215900</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>832806</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>31798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Object 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11837555" y="6371937"/>
+          <a:ext cx="2931391" cy="576118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>832806</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>31798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Object 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8826500" y="6248400"/>
+          <a:ext cx="2928306" cy="577898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>832806</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>31798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Object 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9410700" y="6629400"/>
+          <a:ext cx="2547306" cy="577898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -958,29 +2974,29 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>91</v>
       </c>
@@ -992,19 +3008,19 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022405E9-980C-D14E-8E4F-F6869DD39773}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A89" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43:N43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1012,7 +3028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>0.74199999999999999</v>
       </c>
@@ -1020,7 +3036,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>0.76200000000000001</v>
       </c>
@@ -1028,7 +3044,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>0.754</v>
       </c>
@@ -1036,10 +3052,10 @@
         <v>0.7</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>0.748</v>
       </c>
@@ -1047,10 +3063,10 @@
         <v>0.7</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>0.77</v>
       </c>
@@ -1058,7 +3074,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>0.77400000000000002</v>
       </c>
@@ -1069,7 +3085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>0.754</v>
       </c>
@@ -1077,7 +3093,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>0.76400000000000001</v>
       </c>
@@ -1088,7 +3104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>0.77800000000000002</v>
       </c>
@@ -1111,7 +3127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>0.73599999999999999</v>
       </c>
@@ -1134,7 +3150,7 @@
         <v>2.8936091954023043E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>0.73399999999999999</v>
       </c>
@@ -1157,7 +3173,7 @@
         <v>1.1475886013452219E-31</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>0.74399999999999999</v>
       </c>
@@ -1165,7 +3181,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>0.77400000000000002</v>
       </c>
@@ -1173,7 +3189,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>0.77600000000000002</v>
       </c>
@@ -1184,7 +3200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>0.76800000000000002</v>
       </c>
@@ -1213,7 +3229,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>0.75600000000000001</v>
       </c>
@@ -1242,7 +3258,7 @@
         <v>4.0068728863327339</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>0.78800000000000003</v>
       </c>
@@ -1265,7 +3281,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>0.78</v>
       </c>
@@ -1280,7 +3296,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>0.76400000000000001</v>
       </c>
@@ -1301,7 +3317,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>0.77400000000000002</v>
       </c>
@@ -1309,7 +3325,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>0.75600000000000001</v>
       </c>
@@ -1320,7 +3336,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>0.76600000000000001</v>
       </c>
@@ -1331,7 +3347,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>0.77400000000000002</v>
       </c>
@@ -1343,7 +3359,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>0.72</v>
       </c>
@@ -1351,7 +3367,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>0.78</v>
       </c>
@@ -1362,7 +3378,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>0.78200000000000003</v>
       </c>
@@ -1370,7 +3386,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>0.77400000000000002</v>
       </c>
@@ -1378,7 +3394,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>0.73199999999999998</v>
       </c>
@@ -1386,43 +3402,566 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>0.77</v>
       </c>
       <c r="B30" s="2">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G30" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>0.77</v>
       </c>
       <c r="B31" s="2">
         <v>0.7</v>
       </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G32" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" s="11">
+        <v>30</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+    </row>
+    <row r="33" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G33" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="11">
+        <v>30</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+    </row>
+    <row r="34" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G34" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H34" s="11">
+        <v>58</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G35" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H35" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+    </row>
+    <row r="36" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G36" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H36" s="11">
+        <f>_xlfn.T.INV(1-H35,H34)</f>
+        <v>2.663286953537658</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+    </row>
+    <row r="37" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G37" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H37" s="11">
+        <f>H36*SQRT(J18*(1/H32+1/H33))</f>
+        <v>8.2713666447384211E-3</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+    </row>
+    <row r="38" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+    </row>
+    <row r="39" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G40" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+    </row>
+    <row r="41" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G41" s="34">
+        <f>J11</f>
+        <v>0.76213333333333333</v>
+      </c>
+      <c r="H41" s="11">
+        <f>J12</f>
+        <v>0.69999999999999962</v>
+      </c>
+      <c r="I41" s="11">
+        <f>H37</f>
+        <v>8.2713666447384211E-3</v>
+      </c>
+      <c r="J41" s="11">
+        <f>(G41-H41)-I41</f>
+        <v>5.3861966688595289E-2</v>
+      </c>
+      <c r="K41" s="11">
+        <f>(G41-H41)+I41</f>
+        <v>7.0404699978072124E-2</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+    </row>
+    <row r="42" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+    </row>
+    <row r="43" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8928CADD-56F3-5841-AB6E-243FB9C75558}">
-  <dimension ref="D6"/>
+  <dimension ref="D6:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>95</v>
       </c>
     </row>
+    <row r="9" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D9" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+    </row>
+    <row r="10" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+    </row>
+    <row r="11" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+    </row>
+    <row r="12" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+    </row>
+    <row r="13" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+    </row>
+    <row r="14" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+    </row>
+    <row r="15" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+    </row>
+    <row r="16" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D17" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D22" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D26" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+    </row>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D30" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D9:N16"/>
+    <mergeCell ref="D17:N21"/>
+    <mergeCell ref="D22:N25"/>
+    <mergeCell ref="D26:N29"/>
+    <mergeCell ref="D30:N32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1431,266 +3970,266 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEBEFF7-463C-1843-93DF-7A70EFFF26D0}">
   <dimension ref="B5:S46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+    <row r="6" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-    </row>
-    <row r="8" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="28" t="s">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+    </row>
+    <row r="8" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-    </row>
-    <row r="9" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-    </row>
-    <row r="10" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="27" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+    </row>
+    <row r="9" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+    </row>
+    <row r="10" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-    </row>
-    <row r="11" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-    </row>
-    <row r="12" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-    </row>
-    <row r="13" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="30" t="s">
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+    </row>
+    <row r="11" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+    </row>
+    <row r="12" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+    </row>
+    <row r="13" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="15"/>
     </row>
-    <row r="15" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+    <row r="15" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
+    <row r="16" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
+    <row r="17" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="s">
+    <row r="18" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
+    <row r="19" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
+    <row r="20" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
+    <row r="21" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="20" t="s">
+    <row r="22" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
+    <row r="23" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
+    <row r="24" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="20"/>
-    </row>
-    <row r="26" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="18"/>
+    </row>
+    <row r="26" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>
     </row>
-    <row r="29" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="s">
+    <row r="29" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="19" t="s">
+    <row r="30" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="s">
+    <row r="31" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
-    </row>
-    <row r="33" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="17"/>
+    </row>
+    <row r="33" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="19" t="s">
+    <row r="36" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="19" t="s">
+    <row r="37" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="15"/>
     </row>
-    <row r="42" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B8:S9"/>
@@ -1706,68 +4245,76 @@
   <dimension ref="C3:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="17" t="s">
+    <row r="3" spans="3:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="C3" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="17" t="s">
+    <row r="4" spans="3:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="C4" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C5" s="31" t="s">
+    <row r="5" spans="3:4" ht="44" x14ac:dyDescent="0.2">
+      <c r="C5" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="17" t="s">
+    <row r="6" spans="3:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+    </row>
+    <row r="7" spans="3:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+    </row>
+    <row r="8" spans="3:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="C8" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="38" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="17">
+    <row r="9" spans="3:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="C9" s="38">
         <v>100</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="17">
+    <row r="10" spans="3:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="C10" s="38">
         <v>200</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="17">
+    <row r="11" spans="3:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="C11" s="38">
         <v>300</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="38">
         <v>3</v>
       </c>
     </row>
@@ -1781,134 +4328,134 @@
   <dimension ref="B3:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+    <row r="3" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B3" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="35">
         <v>100</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="35">
         <v>1</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="35">
+        <v>30</v>
+      </c>
+      <c r="F4" s="37">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B5" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="35">
+        <v>200</v>
+      </c>
+      <c r="D5" s="35">
+        <v>2</v>
+      </c>
+      <c r="E5" s="35">
+        <v>30</v>
+      </c>
+      <c r="F5" s="37">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B6" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="35">
+        <v>300</v>
+      </c>
+      <c r="D6" s="35">
+        <v>3</v>
+      </c>
+      <c r="E6" s="35">
+        <v>30</v>
+      </c>
+      <c r="F6" s="37">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="35">
         <v>100</v>
       </c>
-      <c r="F4" s="23">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="22">
+      <c r="D7" s="35">
+        <v>4</v>
+      </c>
+      <c r="E7" s="35">
+        <v>30</v>
+      </c>
+      <c r="F7" s="37">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B8" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="35">
         <v>200</v>
       </c>
-      <c r="D5" s="22">
-        <v>2</v>
-      </c>
-      <c r="E5" s="22">
-        <v>100</v>
-      </c>
-      <c r="F5" s="23">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="22">
+      <c r="D8" s="35">
+        <v>5</v>
+      </c>
+      <c r="E8" s="35">
+        <v>30</v>
+      </c>
+      <c r="F8" s="37">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B9" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="35">
         <v>300</v>
       </c>
-      <c r="D6" s="22">
-        <v>3</v>
-      </c>
-      <c r="E6" s="22">
-        <v>100</v>
-      </c>
-      <c r="F6" s="23">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="22">
-        <v>100</v>
-      </c>
-      <c r="D7" s="22">
-        <v>4</v>
-      </c>
-      <c r="E7" s="22">
-        <v>100</v>
-      </c>
-      <c r="F7" s="23">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="22">
-        <v>200</v>
-      </c>
-      <c r="D8" s="22">
-        <v>5</v>
-      </c>
-      <c r="E8" s="22">
-        <v>100</v>
-      </c>
-      <c r="F8" s="23">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="22">
-        <v>300</v>
-      </c>
-      <c r="D9" s="22">
+      <c r="D9" s="35">
         <v>6</v>
       </c>
-      <c r="E9" s="22">
-        <v>100</v>
-      </c>
-      <c r="F9" s="23">
+      <c r="E9" s="35">
+        <v>30</v>
+      </c>
+      <c r="F9" s="37">
         <v>0.7</v>
       </c>
     </row>
@@ -1921,671 +4468,671 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151AF991-D225-4A0B-90F0-C1C1F702C618}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="31.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
-        <v>0.7</v>
-      </c>
-      <c r="B2" s="25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="B2" s="21">
         <v>0.78600000000000003</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="21">
         <v>0.74199999999999999</v>
       </c>
-      <c r="D2" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E2" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F2" s="25">
+      <c r="D2" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E2" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F2" s="21">
         <v>0.7</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
         <v>0.77</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="21">
         <v>0.81</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="21">
         <v>0.76200000000000001</v>
       </c>
-      <c r="D3" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E3" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F3" s="25">
+      <c r="D3" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E3" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F3" s="21">
         <v>0.7</v>
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="21">
         <v>0.77</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="21">
         <v>0.80800000000000005</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="21">
         <v>0.754</v>
       </c>
-      <c r="D4" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E4" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F4" s="25">
+      <c r="D4" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F4" s="21">
         <v>0.7</v>
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
         <v>0.73</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="21">
         <v>0.78800000000000003</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="21">
         <v>0.748</v>
       </c>
-      <c r="D5" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E5" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F5" s="25">
+      <c r="D5" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F5" s="21">
         <v>0.7</v>
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
         <v>0.76</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="21">
         <v>0.79400000000000004</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="21">
         <v>0.77</v>
       </c>
-      <c r="D6" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E6" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F6" s="25">
+      <c r="D6" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F6" s="21">
         <v>0.7</v>
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
         <v>0.72</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="21">
         <v>0.82</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="21">
         <v>0.77400000000000002</v>
       </c>
-      <c r="D7" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E7" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F7" s="25">
+      <c r="D7" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F7" s="21">
         <v>0.7</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
         <v>0.75</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="21">
         <v>0.78200000000000003</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="21">
         <v>0.754</v>
       </c>
-      <c r="D8" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E8" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F8" s="25">
+      <c r="D8" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F8" s="21">
         <v>0.7</v>
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="21">
         <v>0.76</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="21">
         <v>0.8</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="21">
         <v>0.76400000000000001</v>
       </c>
-      <c r="D9" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E9" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F9" s="25">
+      <c r="D9" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F9" s="21">
         <v>0.7</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="B10" s="25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="B10" s="21">
         <v>0.8</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="21">
         <v>0.77800000000000002</v>
       </c>
-      <c r="D10" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E10" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F10" s="25">
+      <c r="D10" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E10" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F10" s="21">
         <v>0.7</v>
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="21">
         <v>0.8</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="21">
         <v>0.80600000000000005</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="21">
         <v>0.73599999999999999</v>
       </c>
-      <c r="D11" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E11" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F11" s="25">
+      <c r="D11" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F11" s="21">
         <v>0.7</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="21">
         <v>0.78</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="21">
         <v>0.8</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="21">
         <v>0.73399999999999999</v>
       </c>
-      <c r="D12" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E12" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F12" s="25">
+      <c r="D12" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F12" s="21">
         <v>0.7</v>
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="21">
         <v>0.75</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="21">
         <v>0.79</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="21">
         <v>0.74399999999999999</v>
       </c>
-      <c r="D13" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E13" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F13" s="25">
+      <c r="D13" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F13" s="21">
         <v>0.7</v>
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="21">
         <v>0.8</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="21">
         <v>0.79</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="21">
         <v>0.77400000000000002</v>
       </c>
-      <c r="D14" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E14" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F14" s="25">
+      <c r="D14" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F14" s="21">
         <v>0.7</v>
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="21">
         <v>0.78</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="21">
         <v>0.79</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="21">
         <v>0.77600000000000002</v>
       </c>
-      <c r="D15" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E15" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F15" s="25">
+      <c r="D15" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F15" s="21">
         <v>0.7</v>
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="21">
         <v>0.77</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="21">
         <v>0.79</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="21">
         <v>0.76800000000000002</v>
       </c>
-      <c r="D16" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E16" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F16" s="25">
+      <c r="D16" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E16" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F16" s="21">
         <v>0.7</v>
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="21">
         <v>0.76</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="21">
         <v>0.8</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="21">
         <v>0.75600000000000001</v>
       </c>
-      <c r="D17" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E17" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F17" s="25">
+      <c r="D17" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F17" s="21">
         <v>0.7</v>
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="21">
         <v>0.73</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="21">
         <v>0.79600000000000004</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="21">
         <v>0.78800000000000003</v>
       </c>
-      <c r="D18" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E18" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F18" s="25">
+      <c r="D18" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E18" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F18" s="21">
         <v>0.7</v>
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="21">
         <v>0.76</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="21">
         <v>0.79600000000000004</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="21">
         <v>0.78</v>
       </c>
-      <c r="D19" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E19" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F19" s="25">
+      <c r="D19" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E19" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F19" s="21">
         <v>0.7</v>
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="21">
         <v>0.76</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="21">
         <v>0.79800000000000004</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="21">
         <v>0.76400000000000001</v>
       </c>
-      <c r="D20" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E20" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F20" s="25">
+      <c r="D20" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E20" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F20" s="21">
         <v>0.7</v>
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="21">
         <v>0.72</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="21">
         <v>0.78800000000000003</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="21">
         <v>0.77400000000000002</v>
       </c>
-      <c r="D21" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E21" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F21" s="25">
+      <c r="D21" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F21" s="21">
         <v>0.7</v>
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="21">
         <v>0.8</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="21">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="21">
         <v>0.75600000000000001</v>
       </c>
-      <c r="D22" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E22" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F22" s="25">
+      <c r="D22" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E22" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F22" s="21">
         <v>0.7</v>
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="21">
         <v>0.76</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="21">
         <v>0.77600000000000002</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="21">
         <v>0.76600000000000001</v>
       </c>
-      <c r="D23" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E23" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F23" s="25">
+      <c r="D23" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E23" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F23" s="21">
         <v>0.7</v>
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="21">
         <v>0.76</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="21">
         <v>0.80600000000000005</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="21">
         <v>0.77400000000000002</v>
       </c>
-      <c r="D24" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E24" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F24" s="25">
+      <c r="D24" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E24" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F24" s="21">
         <v>0.7</v>
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
-        <v>0.7</v>
-      </c>
-      <c r="B25" s="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="B25" s="21">
         <v>0.77800000000000002</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="21">
         <v>0.72</v>
       </c>
-      <c r="D25" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E25" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F25" s="25">
+      <c r="D25" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E25" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F25" s="21">
         <v>0.7</v>
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="B26" s="25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="B26" s="21">
         <v>0.77600000000000002</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="21">
         <v>0.78</v>
       </c>
-      <c r="D26" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E26" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F26" s="25">
+      <c r="D26" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E26" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F26" s="21">
         <v>0.7</v>
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="21">
         <v>0.79</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="21">
         <v>0.78200000000000003</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="21">
         <v>0.78200000000000003</v>
       </c>
-      <c r="D27" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E27" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F27" s="25">
+      <c r="D27" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E27" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F27" s="21">
         <v>0.7</v>
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="21">
         <v>0.76</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="21">
         <v>0.77</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="21">
         <v>0.77400000000000002</v>
       </c>
-      <c r="D28" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E28" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F28" s="25">
+      <c r="D28" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E28" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F28" s="21">
         <v>0.7</v>
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="21">
         <v>0.8</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="21">
         <v>0.79800000000000004</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="21">
         <v>0.73199999999999998</v>
       </c>
-      <c r="D29" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E29" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F29" s="25">
+      <c r="D29" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E29" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F29" s="21">
         <v>0.7</v>
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="21">
         <v>0.72</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="21">
         <v>0.80600000000000005</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="21">
         <v>0.77</v>
       </c>
-      <c r="D30" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E30" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F30" s="25">
+      <c r="D30" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E30" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F30" s="21">
         <v>0.7</v>
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25">
+    <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="21">
         <v>0.73</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="21">
         <v>0.78800000000000003</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="21">
         <v>0.77</v>
       </c>
-      <c r="D31" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="E31" s="25">
-        <v>0.74</v>
-      </c>
-      <c r="F31" s="25">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D31" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="E31" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="F31" s="21">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="26">
         <f>AVERAGE(A2:A31)</f>
         <v>0.75566666666666671</v>
@@ -2611,72 +5158,73 @@
         <v>0.69999999999999962</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2685,16 +5233,21 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K7" sqref="K7:P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="16" max="16" width="11.85546875" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" customWidth="1"/>
+    <col min="16" max="16" width="11.83203125" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>54</v>
       </c>
@@ -2720,7 +5273,7 @@
       </c>
       <c r="Q1" s="12"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="D2" s="3"/>
@@ -2734,7 +5287,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -2772,7 +5325,7 @@
         <v>0.69999999999999962</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -2810,7 +5363,7 @@
         <v>6.1848972002915346E-17</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
@@ -2848,7 +5401,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
@@ -2886,7 +5439,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
@@ -2924,7 +5477,7 @@
         <v>3.3876077124502211E-16</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>48</v>
       </c>
@@ -2962,7 +5515,7 @@
         <v>1.1475886013452219E-31</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
@@ -3000,7 +5553,7 @@
         <v>-2.1481481481481479</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>50</v>
       </c>
@@ -3038,7 +5591,7 @@
         <v>1.0534200859823297</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>51</v>
       </c>
@@ -3076,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
@@ -3114,7 +5667,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
@@ -3152,7 +5705,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -3190,7 +5743,7 @@
         <v>20.999999999999989</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -3228,7 +5781,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
@@ -3266,7 +5819,7 @@
         <v>1.2649535087579814E-16</v>
       </c>
     </row>
-    <row r="21" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P21" t="s">
         <v>55</v>
       </c>
@@ -3277,35 +5830,35 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEE8415-32AE-F848-8F39-47C6574DD2E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEE8415-32AE-F848-8F39-47C6574DD2E9}">
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0.7</v>
       </c>
@@ -3316,7 +5869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>0.77</v>
       </c>
@@ -3324,7 +5877,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0.77</v>
       </c>
@@ -3334,8 +5887,11 @@
       <c r="F4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>0.73</v>
       </c>
@@ -3345,8 +5901,11 @@
       <c r="F5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>0.76</v>
       </c>
@@ -3354,7 +5913,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>0.72</v>
       </c>
@@ -3362,7 +5921,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>0.75</v>
       </c>
@@ -3373,7 +5932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>0.76</v>
       </c>
@@ -3402,7 +5961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>0.74</v>
       </c>
@@ -3431,7 +5990,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>0.8</v>
       </c>
@@ -3454,7 +6013,7 @@
         <v>3.5955056179775365E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>0.78</v>
       </c>
@@ -3462,7 +6021,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>0.75</v>
       </c>
@@ -3470,7 +6029,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>0.8</v>
       </c>
@@ -3481,7 +6040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>0.78</v>
       </c>
@@ -3510,7 +6069,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>0.77</v>
       </c>
@@ -3539,7 +6098,7 @@
         <v>3.8942321312897401</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>0.76</v>
       </c>
@@ -3562,7 +6121,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>0.73</v>
       </c>
@@ -3577,7 +6136,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.76</v>
       </c>
@@ -3598,7 +6157,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>0.76</v>
       </c>
@@ -3606,7 +6165,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>0.72</v>
       </c>
@@ -3617,7 +6176,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>0.8</v>
       </c>
@@ -3628,7 +6187,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>0.76</v>
       </c>
@@ -3642,7 +6201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>0.76</v>
       </c>
@@ -3659,7 +6218,7 @@
         <v>3.8942321312897401</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>0.7</v>
       </c>
@@ -3667,7 +6226,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>0.74</v>
       </c>
@@ -3678,7 +6237,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>0.79</v>
       </c>
@@ -3686,135 +6245,167 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0.76</v>
       </c>
       <c r="B28" s="2">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F28" s="31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>0.8</v>
       </c>
       <c r="B29" s="2">
         <v>0.74</v>
       </c>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>0.72</v>
       </c>
       <c r="B30" s="2">
         <v>0.74</v>
       </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F30" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" s="24">
+        <f>G10</f>
+        <v>90</v>
+      </c>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>0.73</v>
       </c>
       <c r="B31" s="2">
         <v>0.74</v>
       </c>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F31" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="24">
+        <f>G11</f>
+        <v>90</v>
+      </c>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>0.78600000000000003</v>
       </c>
       <c r="B32" s="2">
         <v>0.74</v>
       </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F32" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="24">
+        <f>H17</f>
+        <v>178</v>
+      </c>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>0.81</v>
       </c>
       <c r="B33" s="2">
         <v>0.74</v>
       </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F33" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>0.80800000000000005</v>
       </c>
       <c r="B34" s="2">
         <v>0.74</v>
       </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F34" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" s="24">
+        <f>_xlfn.T.INV(1-G33,G32)</f>
+        <v>2.6037313627264971</v>
+      </c>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>0.78800000000000003</v>
       </c>
       <c r="B35" s="2">
         <v>0.74</v>
       </c>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F35" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="24">
+        <f>G34*SQRT(I17*(1/G30+1/G31))</f>
+        <v>8.9017114464498542E-3</v>
+      </c>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>0.79400000000000004</v>
       </c>
       <c r="B36" s="2">
         <v>0.74</v>
       </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>0.82</v>
       </c>
@@ -3826,175 +6417,204 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>0.78200000000000003</v>
       </c>
       <c r="B38" s="2">
         <v>0.74</v>
       </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>0.8</v>
       </c>
       <c r="B39" s="2">
         <v>0.74</v>
       </c>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F39" s="29">
+        <f>I10</f>
+        <v>0.7706666666666665</v>
+      </c>
+      <c r="G39" s="24">
+        <f>I11</f>
+        <v>0.72666666666666757</v>
+      </c>
+      <c r="H39" s="24">
+        <f>+G35</f>
+        <v>8.9017114464498542E-3</v>
+      </c>
+      <c r="I39" s="28">
+        <f>(F39-G39)-H39</f>
+        <v>3.5098288553549073E-2</v>
+      </c>
+      <c r="J39" s="24">
+        <f>(F39-G39)+H39</f>
+        <v>5.2901711446448785E-2</v>
+      </c>
+      <c r="K39" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="L39" s="24"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>0.8</v>
       </c>
       <c r="B40" s="2">
         <v>0.74</v>
       </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>0.80600000000000005</v>
       </c>
       <c r="B41" s="2">
         <v>0.74</v>
       </c>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="L41" s="24"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>0.8</v>
       </c>
       <c r="B42" s="2">
         <v>0.74</v>
       </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>0.79</v>
       </c>
       <c r="B43" s="2">
         <v>0.74</v>
       </c>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>0.79</v>
       </c>
       <c r="B44" s="2">
         <v>0.74</v>
       </c>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>0.79</v>
       </c>
       <c r="B45" s="2">
         <v>0.74</v>
       </c>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>0.79</v>
       </c>
       <c r="B46" s="2">
         <v>0.74</v>
       </c>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>0.8</v>
       </c>
       <c r="B47" s="2">
         <v>0.74</v>
       </c>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>0.79600000000000004</v>
       </c>
       <c r="B48" s="2">
         <v>0.74</v>
       </c>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>0.79600000000000004</v>
       </c>
@@ -4002,7 +6622,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>0.79800000000000004</v>
       </c>
@@ -4010,7 +6630,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>0.78800000000000003</v>
       </c>
@@ -4018,7 +6638,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>0.81399999999999995</v>
       </c>
@@ -4026,7 +6646,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>0.77600000000000002</v>
       </c>
@@ -4034,7 +6654,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>0.80600000000000005</v>
       </c>
@@ -4042,7 +6662,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>0.77800000000000002</v>
       </c>
@@ -4050,7 +6670,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>0.77600000000000002</v>
       </c>
@@ -4058,7 +6678,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>0.78200000000000003</v>
       </c>
@@ -4066,7 +6686,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>0.77</v>
       </c>
@@ -4074,7 +6694,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>0.79800000000000004</v>
       </c>
@@ -4082,7 +6702,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>0.80600000000000005</v>
       </c>
@@ -4090,7 +6710,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>0.78800000000000003</v>
       </c>
@@ -4098,7 +6718,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>0.74199999999999999</v>
       </c>
@@ -4106,7 +6726,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>0.76200000000000001</v>
       </c>
@@ -4114,7 +6734,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>0.754</v>
       </c>
@@ -4122,7 +6742,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>0.748</v>
       </c>
@@ -4130,7 +6750,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>0.77</v>
       </c>
@@ -4138,7 +6758,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>0.77400000000000002</v>
       </c>
@@ -4146,7 +6766,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>0.754</v>
       </c>
@@ -4154,7 +6774,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>0.76400000000000001</v>
       </c>
@@ -4162,7 +6782,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>0.77800000000000002</v>
       </c>
@@ -4170,7 +6790,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>0.73599999999999999</v>
       </c>
@@ -4178,7 +6798,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>0.73399999999999999</v>
       </c>
@@ -4186,7 +6806,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>0.74399999999999999</v>
       </c>
@@ -4194,7 +6814,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>0.77400000000000002</v>
       </c>
@@ -4202,7 +6822,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>0.77600000000000002</v>
       </c>
@@ -4210,7 +6830,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>0.76800000000000002</v>
       </c>
@@ -4218,7 +6838,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>0.75600000000000001</v>
       </c>
@@ -4226,7 +6846,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>0.78800000000000003</v>
       </c>
@@ -4234,7 +6854,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>0.78</v>
       </c>
@@ -4242,7 +6862,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>0.76400000000000001</v>
       </c>
@@ -4250,7 +6870,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>0.77400000000000002</v>
       </c>
@@ -4258,7 +6878,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>0.75600000000000001</v>
       </c>
@@ -4266,7 +6886,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>0.76600000000000001</v>
       </c>
@@ -4274,7 +6894,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>0.77400000000000002</v>
       </c>
@@ -4282,7 +6902,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>0.72</v>
       </c>
@@ -4290,7 +6910,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>0.78</v>
       </c>
@@ -4298,7 +6918,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>0.78200000000000003</v>
       </c>
@@ -4306,7 +6926,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>0.77400000000000002</v>
       </c>
@@ -4314,7 +6934,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>0.73199999999999998</v>
       </c>
@@ -4322,7 +6942,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>0.77</v>
       </c>
@@ -4330,7 +6950,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>0.77</v>
       </c>
@@ -4340,25 +6960,54 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="1025" r:id="rId3">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>215900</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>25400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>393700</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="1025" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A4753A-FBCB-FE40-A433-D57FAB657F0E}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -4366,7 +7015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0.7</v>
       </c>
@@ -4377,7 +7026,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>0.77</v>
       </c>
@@ -4385,7 +7034,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0.77</v>
       </c>
@@ -4396,7 +7045,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>0.73</v>
       </c>
@@ -4407,7 +7056,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>0.76</v>
       </c>
@@ -4415,7 +7064,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>0.72</v>
       </c>
@@ -4426,7 +7075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>0.75</v>
       </c>
@@ -4434,7 +7083,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0.76</v>
       </c>
@@ -4445,7 +7094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>0.74</v>
       </c>
@@ -4468,7 +7117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>0.8</v>
       </c>
@@ -4491,7 +7140,7 @@
         <v>8.1160919540230049E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>0.78</v>
       </c>
@@ -4510,11 +7159,11 @@
       <c r="J12" s="4">
         <v>0.73999999999999966</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="42">
         <v>1.1475886013452219E-31</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>0.75</v>
       </c>
@@ -4522,7 +7171,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>0.8</v>
       </c>
@@ -4530,7 +7179,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>0.78</v>
       </c>
@@ -4541,7 +7190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>0.77</v>
       </c>
@@ -4570,7 +7219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>0.76</v>
       </c>
@@ -4599,7 +7248,7 @@
         <v>4.0068728863327339</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>0.73</v>
       </c>
@@ -4622,7 +7271,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>0.76</v>
       </c>
@@ -4637,7 +7286,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.76</v>
       </c>
@@ -4658,7 +7307,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>0.72</v>
       </c>
@@ -4666,7 +7315,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>0.8</v>
       </c>
@@ -4677,7 +7326,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>0.76</v>
       </c>
@@ -4688,7 +7337,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>0.76</v>
       </c>
@@ -4700,7 +7349,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>0.7</v>
       </c>
@@ -4708,7 +7357,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>0.74</v>
       </c>
@@ -4719,7 +7368,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>0.79</v>
       </c>
@@ -4727,63 +7376,253 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0.76</v>
       </c>
       <c r="B28" s="2">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G28" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>0.8</v>
       </c>
       <c r="B29" s="2">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>0.72</v>
       </c>
       <c r="B30" s="2">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G30" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" s="11">
+        <v>30</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>0.73</v>
       </c>
       <c r="B31" s="2">
         <v>0.74</v>
       </c>
+      <c r="G31" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="11">
+        <v>30</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G32" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" s="11">
+        <v>58</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+    </row>
+    <row r="33" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G33" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H33" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+    </row>
+    <row r="34" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G34" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" s="11">
+        <f>+_xlfn.T.INV(1-H33,H32)</f>
+        <v>2.663286953537658</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G35" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35" s="11">
+        <f>H34*SQRT(J18*(1/H30+1/H31))</f>
+        <v>1.3852584682042906E-2</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+    </row>
+    <row r="36" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+    </row>
+    <row r="37" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+    </row>
+    <row r="38" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G38" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+    </row>
+    <row r="39" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G39" s="34">
+        <f>J11</f>
+        <v>0.75566666666666671</v>
+      </c>
+      <c r="H39" s="11">
+        <f>J12</f>
+        <v>0.73999999999999966</v>
+      </c>
+      <c r="I39" s="11">
+        <f>H35</f>
+        <v>1.3852584682042906E-2</v>
+      </c>
+      <c r="J39" s="11">
+        <f>(G39-H39)-I39</f>
+        <v>1.8140819846241447E-3</v>
+      </c>
+      <c r="K39" s="11">
+        <f>(G39-H39)+I39</f>
+        <v>2.9519251348709957E-2</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+    </row>
+    <row r="41" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70107621-CE2B-3141-8A91-A0B3571AAC1E}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:N43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="26.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -4791,7 +7630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>0.78600000000000003</v>
       </c>
@@ -4799,7 +7638,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>0.81</v>
       </c>
@@ -4807,7 +7646,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>0.80800000000000005</v>
       </c>
@@ -4818,7 +7657,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>0.78800000000000003</v>
       </c>
@@ -4829,7 +7668,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>0.79400000000000004</v>
       </c>
@@ -4837,7 +7676,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>0.82</v>
       </c>
@@ -4848,7 +7687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>0.78200000000000003</v>
       </c>
@@ -4856,7 +7695,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>0.8</v>
       </c>
@@ -4867,7 +7706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>0.8</v>
       </c>
@@ -4890,7 +7729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>0.80600000000000005</v>
       </c>
@@ -4913,7 +7752,7 @@
         <v>1.4299310344827577E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>0.8</v>
       </c>
@@ -4936,7 +7775,7 @@
         <v>1.1475886013452219E-31</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>0.79</v>
       </c>
@@ -4944,7 +7783,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>0.79</v>
       </c>
@@ -4952,7 +7791,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>0.79</v>
       </c>
@@ -4963,7 +7802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>0.79</v>
       </c>
@@ -4992,7 +7831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>0.8</v>
       </c>
@@ -5021,7 +7860,7 @@
         <v>4.0068728863327339</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>0.79600000000000004</v>
       </c>
@@ -5044,7 +7883,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>0.79600000000000004</v>
       </c>
@@ -5059,7 +7898,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>0.79800000000000004</v>
       </c>
@@ -5080,7 +7919,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>0.78800000000000003</v>
       </c>
@@ -5088,7 +7927,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>0.81399999999999995</v>
       </c>
@@ -5096,7 +7935,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>0.77600000000000002</v>
       </c>
@@ -5104,7 +7943,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>0.80600000000000005</v>
       </c>
@@ -5115,7 +7954,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>0.77800000000000002</v>
       </c>
@@ -5126,7 +7965,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>0.77600000000000002</v>
       </c>
@@ -5137,7 +7976,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>0.78200000000000003</v>
       </c>
@@ -5145,7 +7984,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>0.77</v>
       </c>
@@ -5156,7 +7995,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>0.79800000000000004</v>
       </c>
@@ -5164,23 +8003,217 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>0.80600000000000005</v>
       </c>
       <c r="B30" s="2">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G30" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>0.78800000000000003</v>
       </c>
       <c r="B31" s="2">
         <v>0.74</v>
       </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G32" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" s="11">
+        <v>30</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+    </row>
+    <row r="33" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G33" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="11">
+        <v>30</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+    </row>
+    <row r="34" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G34" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H34" s="11">
+        <v>58</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G35" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H35" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+    </row>
+    <row r="36" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G36" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H36" s="11">
+        <f>_xlfn.T.INV(1-H35,H34)</f>
+        <v>2.663286953537658</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+    </row>
+    <row r="37" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G37" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H37" s="11">
+        <f>H36*SQRT(J18*(1/H32+1/H33))</f>
+        <v>5.8145335434619206E-3</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+    </row>
+    <row r="38" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+    </row>
+    <row r="39" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G40" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+    </row>
+    <row r="41" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G41" s="34">
+        <f>J11</f>
+        <v>0.7941999999999998</v>
+      </c>
+      <c r="H41" s="11">
+        <f>J12</f>
+        <v>0.73999999999999966</v>
+      </c>
+      <c r="I41" s="11">
+        <f>H37</f>
+        <v>5.8145335434619206E-3</v>
+      </c>
+      <c r="J41" s="11">
+        <f>(G41-H41)-I41</f>
+        <v>4.8385466456538219E-2</v>
+      </c>
+      <c r="K41" s="11">
+        <f>(G41-H41)+I41</f>
+        <v>6.0014533543462055E-2</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+    </row>
+    <row r="42" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+    </row>
+    <row r="43" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Experiment/Experiment decision tree 1.xlsx
+++ b/Experiment/Experiment decision tree 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianmorales/Desktop/ProjectX/Experiment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ProjectX\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FACCAE8-4FD0-E344-87BC-9495D97CC428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D157C7-3F1E-43DC-9ED5-47DAEAD0395A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" firstSheet="2" activeTab="10" xr2:uid="{0C6FF0CF-D8F2-4F3B-8D3B-7285AD9AA1EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="5" xr2:uid="{0C6FF0CF-D8F2-4F3B-8D3B-7285AD9AA1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Integrantes" sheetId="15" r:id="rId1"/>
@@ -20,10 +20,13 @@
     <sheet name="Datos experimento" sheetId="1" r:id="rId5"/>
     <sheet name="Estadistica descriptiva" sheetId="8" r:id="rId6"/>
     <sheet name="Annova our vs library" sheetId="2" r:id="rId7"/>
-    <sheet name="100 datos our vs library" sheetId="3" r:id="rId8"/>
-    <sheet name="200 datos our vs library" sheetId="4" r:id="rId9"/>
-    <sheet name="300 datos our vs library" sheetId="5" r:id="rId10"/>
-    <sheet name="conclusiones" sheetId="13" r:id="rId11"/>
+    <sheet name="Our Tra 1 vs Our Tra 3" sheetId="18" r:id="rId8"/>
+    <sheet name="Our Tra 1 vs Our Tra 2" sheetId="17" r:id="rId9"/>
+    <sheet name="Our Tra 2 vs Our Tra 3" sheetId="16" r:id="rId10"/>
+    <sheet name="100 datos our vs library" sheetId="3" r:id="rId11"/>
+    <sheet name="200 datos our vs library" sheetId="4" r:id="rId12"/>
+    <sheet name="300 datos our vs library" sheetId="5" r:id="rId13"/>
+    <sheet name="conclusiones" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="143">
   <si>
     <t>Tratamiento #1</t>
   </si>
@@ -483,9 +486,6 @@
     <t>H1= La precision  de 300 datos del arbol de decision entre el  implementado por nosotros y la del arbol de decision de la libreria utilizada son  diferentes</t>
   </si>
   <si>
-    <t xml:space="preserve">Para realizar el experimento tuvimos como variables de estudio la cantidad datos para predecir y el tipo de árbol de decisión usado, comparando la precisión de cada repetición , en base a esto con los resultados que nos arrojo el experimento y u una gran cantidad usando la tecnica de ANOVA,  nos dio como resultado que para una gran cantidad de datos a predecir es mas preciso el arbol de decision implementado por nosotros que el de la libreria , no obstante esto ocurrio cuando evaluamos una entrada pequeña, mediana y todo el dataset.        </t>
-  </si>
-  <si>
     <t>Otra conclusion que observamos es que el árbol de decisión de la libreria  siempre tiene el mismo porcentaje de precisión para todos sus intentos , volviendose constante.</t>
   </si>
   <si>
@@ -496,6 +496,161 @@
   </si>
   <si>
     <t>Analizamos  que el algoritmo implementado por nosotros  cuando realiza una prediccion a pequeños, medianos y grandes cantidades de datos el promedio de precision  se mantiene por encima del 75%.</t>
+  </si>
+  <si>
+    <t>Annova</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> our decision tree 300</t>
+  </si>
+  <si>
+    <t>Our decision tree 100</t>
+  </si>
+  <si>
+    <t>Our decision tree 300</t>
+  </si>
+  <si>
+    <t>La mejor precision es el del our decision tree con una menor cantidad de datos</t>
+  </si>
+  <si>
+    <t>Our decision tree 200</t>
+  </si>
+  <si>
+    <t>Our decision tree200</t>
+  </si>
+  <si>
+    <t>Cantidad d datos mediana contra una gran cantidad de datos</t>
+  </si>
+  <si>
+    <t>Cantidad d datos pequeña contra una mediana cantidad de datos</t>
+  </si>
+  <si>
+    <t>La mejor precision es el del our decision tree con una mediana cantidad de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> our decision tree 200</t>
+  </si>
+  <si>
+    <r>
+      <t>H0= La precision del arbol de decision implementado por nosotros con una peque</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ña</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cantidad de datos contra el mismo arbol pero con una cantidad de datos mediana son iguales</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H0= La precision del arbol de decision implementado por nosotros con una peque</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ña</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cantidad de datos contra el mismo arbol pero con una cantidad de datos mediana son diferentes</t>
+    </r>
+  </si>
+  <si>
+    <t>H0= La precision del arbol de decision implementado por nosotros con una mediana cantidad de datos contra el mismo arbol pero con una cantidad de datos mayor son iguales</t>
+  </si>
+  <si>
+    <t>H1= La precision del arbol de decision implementado por nosotros con una mediana cantidad de datos contra el mismo arbol pero con una cantidad de datos mayor son diferentes</t>
+  </si>
+  <si>
+    <t>Our decision tree big</t>
+  </si>
+  <si>
+    <t>Our decision tree little</t>
+  </si>
+  <si>
+    <r>
+      <t>H0= La precision del arbol de decision implementado por nosotros con una peque</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ña</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cantidad de datos contra el mismo arbol pero con una gran cantidad de datos  son iguales</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H1= La precision del arbol de decision implementado por nosotros con una peque</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ña</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cantidad de datos contra el mismo arbol pero con una gran cantidad de datos  son diferentes</t>
+    </r>
+  </si>
+  <si>
+    <t>Se acepta H0, ya que la precision son iguales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para realizar el experimento tuvimos como variables de estudio la cantidad datos para predecir y el tipo de árbol de decisión usado, comparando la precisión de cada repetición , en base a esto con los resultados que nos arrojo el experimento y  una gran cantidad usando la tecnica de ANOVA,  nos dio como resultado que para una gran cantidad de datos a predecir es mas preciso el arbol de decision implementado por nosotros que el de la libreria , no obstante esto ocurrio cuando evaluamos una entrada pequeña, mediana y todo el dataset.        </t>
   </si>
 </sst>
 </file>
@@ -623,7 +778,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,6 +794,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -691,7 +852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -769,6 +930,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,7 +956,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2472,15 +2638,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>215900</xdr:colOff>
+          <xdr:colOff>219075</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>390525</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2525,6 +2691,153 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19788</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Object 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C29A0A89-1946-4885-90AE-9955BF7AE451}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11236325" y="6962775"/>
+          <a:ext cx="5261713" cy="1181099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19788</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Object 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB40693-764A-4F5A-949F-B755C28C16BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6626225" y="6962775"/>
+          <a:ext cx="4461613" cy="1181099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19788</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Object 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63C73A5-69E2-42ED-8CE9-BB57AE7BE606}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6626225" y="6962775"/>
+          <a:ext cx="4461613" cy="1181099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2573,7 +2886,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2622,7 +2935,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2974,29 +3287,29 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>91</v>
       </c>
@@ -3007,20 +3320,640 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022405E9-980C-D14E-8E4F-F6869DD39773}">
-  <dimension ref="A1:N43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACE3B79-4D57-4E37-B452-CF45C38C3194}">
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43:N43"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
-    <col min="13" max="13" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0.74199999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>0.81</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.748</v>
+      </c>
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="B6" s="21">
+        <v>0.77</v>
+      </c>
+      <c r="F6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>0.82</v>
+      </c>
+      <c r="B7" s="21">
+        <v>0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="B8" s="21">
+        <v>0.754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="B10" s="21">
+        <v>0.77800000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="B11" s="21">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="B12" s="21">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
+        <v>0.79</v>
+      </c>
+      <c r="B13" s="21">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="3">
+        <v>30</v>
+      </c>
+      <c r="H13" s="3">
+        <v>23.825999999999993</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.7941999999999998</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1.4299310344827577E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
+        <v>0.79</v>
+      </c>
+      <c r="B14" s="21">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="4">
+        <v>30</v>
+      </c>
+      <c r="H14" s="4">
+        <v>22.864000000000001</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.76213333333333333</v>
+      </c>
+      <c r="J14" s="4">
+        <v>2.8936091954023043E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
+        <v>0.79</v>
+      </c>
+      <c r="B15" s="21">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
+        <v>0.79</v>
+      </c>
+      <c r="B16" s="21">
+        <v>0.76800000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="B17" s="21">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="B18" s="21">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="B19" s="21">
+        <v>0.78</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1.5424066666666684E-2</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1.5424066666666684E-2</v>
+      </c>
+      <c r="J19" s="3">
+        <v>71.349245509746169</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1.0967225911649304E-11</v>
+      </c>
+      <c r="L19" s="3">
+        <v>4.0068728863327339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="B20" s="21">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1.2538266666666679E-2</v>
+      </c>
+      <c r="H20" s="3">
+        <v>58</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2.161770114942531E-4</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="B21" s="21">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="B22" s="21">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2.7962333333333363E-2</v>
+      </c>
+      <c r="H22" s="4">
+        <v>59</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="B23" s="21">
+        <v>0.76600000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="B24" s="21">
+        <v>0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="21">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="B25" s="21">
+        <v>0.72</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="21">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="B26" s="21">
+        <v>0.78</v>
+      </c>
+      <c r="F26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="21">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="B27" s="21">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="21">
+        <v>0.77</v>
+      </c>
+      <c r="B28" s="21">
+        <v>0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="21">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="B29" s="21">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="21">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="B30" s="21">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="21">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="B31" s="21">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="35" spans="6:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="F35" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+    </row>
+    <row r="36" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+    </row>
+    <row r="37" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F37" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" s="11">
+        <v>30</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+    </row>
+    <row r="38" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F38" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="11">
+        <v>30</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+    </row>
+    <row r="39" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F39" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" s="11">
+        <v>58</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+    </row>
+    <row r="40" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F40" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+    </row>
+    <row r="41" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F41" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="11">
+        <f>+_xlfn.T.INV(1-G40,G39)</f>
+        <v>2.663286953537658</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+    </row>
+    <row r="42" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F42" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="11">
+        <f>G41*SQRT(I20*(1/G37+1/G38))</f>
+        <v>1.0110603666435311E-2</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+    </row>
+    <row r="43" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+    </row>
+    <row r="44" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+    </row>
+    <row r="45" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F45" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+    </row>
+    <row r="46" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F46" s="34">
+        <f>I13</f>
+        <v>0.7941999999999998</v>
+      </c>
+      <c r="G46" s="11">
+        <f>I14</f>
+        <v>0.76213333333333333</v>
+      </c>
+      <c r="H46" s="11">
+        <f>G42</f>
+        <v>1.0110603666435311E-2</v>
+      </c>
+      <c r="I46" s="11">
+        <f>(F46-G46)-H46</f>
+        <v>2.1956063000231153E-2</v>
+      </c>
+      <c r="J46" s="11">
+        <f>(F46-G46)+H46</f>
+        <v>4.2177270333101778E-2</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+    </row>
+    <row r="47" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+    </row>
+    <row r="48" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A4753A-FBCB-FE40-A433-D57FAB657F0E}">
+  <dimension ref="A1:N41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="107" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -3028,88 +3961,91 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
-        <v>0.74199999999999999</v>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0.7</v>
       </c>
       <c r="B2" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
-        <v>0.76200000000000001</v>
+        <v>0.74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0.77</v>
       </c>
       <c r="B3" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
-        <v>0.754</v>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>0.77</v>
       </c>
       <c r="B4" s="2">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <v>0.748</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>0.73</v>
       </c>
       <c r="B5" s="2">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
-        <v>0.77</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>0.76</v>
       </c>
       <c r="B6" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
-        <v>0.77400000000000002</v>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>0.72</v>
       </c>
       <c r="B7" s="2">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="G7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
-        <v>0.754</v>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>0.75</v>
       </c>
       <c r="B8" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>0.76400000000000001</v>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>0.76</v>
       </c>
       <c r="B9" s="2">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
-        <v>0.77800000000000002</v>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>0.74</v>
       </c>
       <c r="B10" s="2">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>9</v>
@@ -3127,12 +4063,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <v>0.73599999999999999</v>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>0.8</v>
       </c>
       <c r="B11" s="2">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>27</v>
@@ -3141,21 +4077,21 @@
         <v>30</v>
       </c>
       <c r="I11" s="3">
-        <v>22.864000000000001</v>
+        <v>22.67</v>
       </c>
       <c r="J11" s="3">
-        <v>0.76213333333333333</v>
+        <v>0.75566666666666671</v>
       </c>
       <c r="K11" s="3">
-        <v>2.8936091954023043E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>0.73399999999999999</v>
+        <v>8.1160919540230049E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>0.78</v>
       </c>
       <c r="B12" s="2">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>6</v>
@@ -3164,48 +4100,48 @@
         <v>30</v>
       </c>
       <c r="I12" s="4">
-        <v>20.999999999999989</v>
+        <v>22.199999999999989</v>
       </c>
       <c r="J12" s="4">
-        <v>0.69999999999999962</v>
-      </c>
-      <c r="K12" s="4">
+        <v>0.73999999999999966</v>
+      </c>
+      <c r="K12" s="42">
         <v>1.1475886013452219E-31</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
-        <v>0.74399999999999999</v>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>0.75</v>
       </c>
       <c r="B13" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
-        <v>0.77400000000000002</v>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>0.8</v>
       </c>
       <c r="B14" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>0.77600000000000002</v>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>0.78</v>
       </c>
       <c r="B15" s="2">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
-        <v>0.76800000000000002</v>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>0.77</v>
       </c>
       <c r="B16" s="2">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>15</v>
@@ -3229,64 +4165,64 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
-        <v>0.75600000000000001</v>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>0.76</v>
       </c>
       <c r="B17" s="2">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="3">
-        <v>5.7908266666666749E-2</v>
+        <v>3.6816666666666595E-3</v>
       </c>
       <c r="I17" s="3">
         <v>1</v>
       </c>
       <c r="J17" s="3">
-        <v>5.7908266666666749E-2</v>
+        <v>3.6816666666666595E-3</v>
       </c>
       <c r="K17" s="3">
-        <v>400.24939621202475</v>
+        <v>9.0725109757824303</v>
       </c>
       <c r="L17" s="3">
-        <v>1.0331267564947946E-27</v>
+        <v>3.8404708284200807E-3</v>
       </c>
       <c r="M17" s="3">
         <v>4.0068728863327339</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
-        <v>0.78800000000000003</v>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>0.73</v>
       </c>
       <c r="B18" s="2">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H18" s="3">
-        <v>8.3914666666666821E-3</v>
+        <v>2.3536666666666713E-2</v>
       </c>
       <c r="I18" s="3">
         <v>58</v>
       </c>
       <c r="J18" s="3">
-        <v>1.4468045977011521E-4</v>
+        <v>4.0580459770115024E-4</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
-        <v>0.78</v>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>0.76</v>
       </c>
       <c r="B19" s="2">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -3296,18 +4232,18 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>0.76400000000000001</v>
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>0.76</v>
       </c>
       <c r="B20" s="2">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="4">
-        <v>6.629973333333343E-2</v>
+        <v>2.7218333333333372E-2</v>
       </c>
       <c r="I20" s="4">
         <v>59</v>
@@ -3317,97 +4253,708 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
-        <v>0.77400000000000002</v>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>0.72</v>
       </c>
       <c r="B21" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
-        <v>0.75600000000000001</v>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>0.8</v>
       </c>
       <c r="B22" s="2">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
-        <v>0.76600000000000001</v>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>0.76</v>
       </c>
       <c r="B23" s="2">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="G23" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
-        <v>0.77400000000000002</v>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>0.76</v>
       </c>
       <c r="B24" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>40</v>
+        <v>0.74</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
-        <v>0.72</v>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>0.7</v>
       </c>
       <c r="B25" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
-        <v>0.78</v>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>0.74</v>
       </c>
       <c r="B26" s="2">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="G26" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" s="11">
+        <v>30</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="11">
+        <v>30</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G32" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" s="11">
+        <v>58</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+    </row>
+    <row r="33" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G33" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H33" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+    </row>
+    <row r="34" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G34" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" s="11">
+        <f>+_xlfn.T.INV(1-H33,H32)</f>
+        <v>2.663286953537658</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G35" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35" s="11">
+        <f>H34*SQRT(J18*(1/H30+1/H31))</f>
+        <v>1.3852584682042906E-2</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+    </row>
+    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+    </row>
+    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+    </row>
+    <row r="38" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G38" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+    </row>
+    <row r="39" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G39" s="34">
+        <f>J11</f>
+        <v>0.75566666666666671</v>
+      </c>
+      <c r="H39" s="11">
+        <f>J12</f>
+        <v>0.73999999999999966</v>
+      </c>
+      <c r="I39" s="11">
+        <f>H35</f>
+        <v>1.3852584682042906E-2</v>
+      </c>
+      <c r="J39" s="11">
+        <f>(G39-H39)-I39</f>
+        <v>1.8140819846241447E-3</v>
+      </c>
+      <c r="K39" s="11">
+        <f>(G39-H39)+I39</f>
+        <v>2.9519251348709957E-2</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+    </row>
+    <row r="41" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70107621-CE2B-3141-8A91-A0B3571AAC1E}">
+  <dimension ref="A1:N43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:N43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>0.81</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="3">
+        <v>30</v>
+      </c>
+      <c r="I11" s="3">
+        <v>23.825999999999993</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.7941999999999998</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1.4299310344827577E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="4">
+        <v>30</v>
+      </c>
+      <c r="I12" s="4">
+        <v>22.199999999999989</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.73999999999999966</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1.1475886013452219E-31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4.4064600000000093E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4.4064600000000093E-2</v>
+      </c>
+      <c r="K17" s="3">
+        <v>616.31783543937661</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1.3789311728584997E-32</v>
+      </c>
+      <c r="M17" s="3">
+        <v>4.0068728863327339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4.1467999999999974E-3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>58</v>
+      </c>
+      <c r="J18" s="3">
+        <v>7.1496551724137887E-5</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="4">
+        <v>4.8211400000000092E-2</v>
+      </c>
+      <c r="I20" s="4">
+        <v>59</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="G25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>0.78200000000000003</v>
       </c>
       <c r="B27" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>0.77400000000000002</v>
+        <v>0.77</v>
       </c>
       <c r="B28" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.74</v>
+      </c>
+      <c r="G28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <v>0.73199999999999998</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="B29" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
-        <v>0.77</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="B30" s="2">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="G30" s="32" t="s">
         <v>103</v>
@@ -3420,12 +4967,12 @@
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
-        <v>0.77</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
@@ -3436,7 +4983,7 @@
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G32" s="11" t="s">
         <v>104</v>
       </c>
@@ -3450,7 +4997,7 @@
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
     </row>
-    <row r="33" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G33" s="11" t="s">
         <v>105</v>
       </c>
@@ -3464,7 +5011,7 @@
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
     </row>
-    <row r="34" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G34" s="11" t="s">
         <v>106</v>
       </c>
@@ -3478,7 +5025,7 @@
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
     </row>
-    <row r="35" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G35" s="11" t="s">
         <v>107</v>
       </c>
@@ -3492,7 +5039,7 @@
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
     </row>
-    <row r="36" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G36" s="11" t="s">
         <v>108</v>
       </c>
@@ -3507,13 +5054,13 @@
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
     </row>
-    <row r="37" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G37" s="11" t="s">
         <v>109</v>
       </c>
       <c r="H37" s="11">
         <f>H36*SQRT(J18*(1/H32+1/H33))</f>
-        <v>8.2713666447384211E-3</v>
+        <v>5.8145335434619206E-3</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
@@ -3522,7 +5069,7 @@
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
     </row>
-    <row r="38" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
       <c r="I38" s="33"/>
@@ -3532,7 +5079,7 @@
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
     </row>
-    <row r="39" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
@@ -3542,7 +5089,7 @@
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
     </row>
-    <row r="40" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G40" s="11" t="s">
         <v>27</v>
       </c>
@@ -3562,26 +5109,26 @@
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
     </row>
-    <row r="41" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G41" s="34">
         <f>J11</f>
-        <v>0.76213333333333333</v>
+        <v>0.7941999999999998</v>
       </c>
       <c r="H41" s="11">
         <f>J12</f>
-        <v>0.69999999999999962</v>
+        <v>0.73999999999999966</v>
       </c>
       <c r="I41" s="11">
         <f>H37</f>
-        <v>8.2713666447384211E-3</v>
+        <v>5.8145335434619206E-3</v>
       </c>
       <c r="J41" s="11">
         <f>(G41-H41)-I41</f>
-        <v>5.3861966688595289E-2</v>
+        <v>4.8385466456538219E-2</v>
       </c>
       <c r="K41" s="11">
         <f>(G41-H41)+I41</f>
-        <v>7.0404699978072124E-2</v>
+        <v>6.0014533543462055E-2</v>
       </c>
       <c r="L41" s="11" t="s">
         <v>114</v>
@@ -3589,7 +5136,7 @@
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
     </row>
-    <row r="42" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
@@ -3599,7 +5146,7 @@
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
     </row>
-    <row r="43" spans="7:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -3617,24 +5164,635 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022405E9-980C-D14E-8E4F-F6869DD39773}">
+  <dimension ref="A1:N43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43:N43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>0.754</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>0.748</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>0.754</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="3">
+        <v>30</v>
+      </c>
+      <c r="I11" s="3">
+        <v>22.864000000000001</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.76213333333333333</v>
+      </c>
+      <c r="K11" s="3">
+        <v>2.8936091954023043E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="4">
+        <v>30</v>
+      </c>
+      <c r="I12" s="4">
+        <v>20.999999999999989</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.69999999999999962</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1.1475886013452219E-31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5.7908266666666749E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5.7908266666666749E-2</v>
+      </c>
+      <c r="K17" s="3">
+        <v>400.24939621202475</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1.0331267564947946E-27</v>
+      </c>
+      <c r="M17" s="3">
+        <v>4.0068728863327339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="3">
+        <v>8.3914666666666821E-3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>58</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1.4468045977011521E-4</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>0.78</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="4">
+        <v>6.629973333333343E-2</v>
+      </c>
+      <c r="I20" s="4">
+        <v>59</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>0.78</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A30" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G32" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" s="11">
+        <v>30</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+    </row>
+    <row r="33" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G33" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="11">
+        <v>30</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+    </row>
+    <row r="34" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G34" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H34" s="11">
+        <v>58</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G35" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H35" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+    </row>
+    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G36" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H36" s="11">
+        <f>_xlfn.T.INV(1-H35,H34)</f>
+        <v>2.663286953537658</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+    </row>
+    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G37" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H37" s="11">
+        <f>H36*SQRT(J18*(1/H32+1/H33))</f>
+        <v>8.2713666447384211E-3</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+    </row>
+    <row r="38" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+    </row>
+    <row r="39" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G40" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+    </row>
+    <row r="41" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G41" s="34">
+        <f>J11</f>
+        <v>0.76213333333333333</v>
+      </c>
+      <c r="H41" s="11">
+        <f>J12</f>
+        <v>0.69999999999999962</v>
+      </c>
+      <c r="I41" s="11">
+        <f>H37</f>
+        <v>8.2713666447384211E-3</v>
+      </c>
+      <c r="J41" s="11">
+        <f>(G41-H41)-I41</f>
+        <v>5.3861966688595289E-2</v>
+      </c>
+      <c r="K41" s="11">
+        <f>(G41-H41)+I41</f>
+        <v>7.0404699978072124E-2</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+    </row>
+    <row r="42" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+    </row>
+    <row r="43" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8928CADD-56F3-5841-AB6E-243FB9C75558}">
   <dimension ref="D6:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:N32"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D9" s="45" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="E9" s="45"/>
       <c r="F9" s="45"/>
@@ -3647,7 +5805,7 @@
       <c r="M9" s="45"/>
       <c r="N9" s="45"/>
     </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D10" s="45"/>
       <c r="E10" s="45"/>
       <c r="F10" s="45"/>
@@ -3660,7 +5818,7 @@
       <c r="M10" s="45"/>
       <c r="N10" s="45"/>
     </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
       <c r="F11" s="45"/>
@@ -3673,7 +5831,7 @@
       <c r="M11" s="45"/>
       <c r="N11" s="45"/>
     </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D12" s="45"/>
       <c r="E12" s="45"/>
       <c r="F12" s="45"/>
@@ -3686,7 +5844,7 @@
       <c r="M12" s="45"/>
       <c r="N12" s="45"/>
     </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
@@ -3699,7 +5857,7 @@
       <c r="M13" s="45"/>
       <c r="N13" s="45"/>
     </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D14" s="45"/>
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
@@ -3712,7 +5870,7 @@
       <c r="M14" s="45"/>
       <c r="N14" s="45"/>
     </row>
-    <row r="15" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D15" s="45"/>
       <c r="E15" s="45"/>
       <c r="F15" s="45"/>
@@ -3725,7 +5883,7 @@
       <c r="M15" s="45"/>
       <c r="N15" s="45"/>
     </row>
-    <row r="16" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D16" s="45"/>
       <c r="E16" s="45"/>
       <c r="F16" s="45"/>
@@ -3738,9 +5896,9 @@
       <c r="M16" s="45"/>
       <c r="N16" s="45"/>
     </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E17" s="45"/>
       <c r="F17" s="45"/>
@@ -3753,7 +5911,7 @@
       <c r="M17" s="45"/>
       <c r="N17" s="45"/>
     </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
       <c r="F18" s="45"/>
@@ -3766,7 +5924,7 @@
       <c r="M18" s="45"/>
       <c r="N18" s="45"/>
     </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
@@ -3779,7 +5937,7 @@
       <c r="M19" s="45"/>
       <c r="N19" s="45"/>
     </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
@@ -3792,7 +5950,7 @@
       <c r="M20" s="45"/>
       <c r="N20" s="45"/>
     </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D21" s="45"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45"/>
@@ -3805,9 +5963,9 @@
       <c r="M21" s="45"/>
       <c r="N21" s="45"/>
     </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D22" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" s="45"/>
       <c r="F22" s="45"/>
@@ -3820,7 +5978,7 @@
       <c r="M22" s="45"/>
       <c r="N22" s="45"/>
     </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
@@ -3833,7 +5991,7 @@
       <c r="M23" s="45"/>
       <c r="N23" s="45"/>
     </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D24" s="45"/>
       <c r="E24" s="45"/>
       <c r="F24" s="45"/>
@@ -3846,7 +6004,7 @@
       <c r="M24" s="45"/>
       <c r="N24" s="45"/>
     </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D25" s="45"/>
       <c r="E25" s="45"/>
       <c r="F25" s="45"/>
@@ -3859,9 +6017,9 @@
       <c r="M25" s="45"/>
       <c r="N25" s="45"/>
     </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D26" s="45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E26" s="45"/>
       <c r="F26" s="45"/>
@@ -3874,7 +6032,7 @@
       <c r="M26" s="45"/>
       <c r="N26" s="45"/>
     </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D27" s="45"/>
       <c r="E27" s="45"/>
       <c r="F27" s="45"/>
@@ -3887,7 +6045,7 @@
       <c r="M27" s="45"/>
       <c r="N27" s="45"/>
     </row>
-    <row r="28" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
@@ -3900,7 +6058,7 @@
       <c r="M28" s="45"/>
       <c r="N28" s="45"/>
     </row>
-    <row r="29" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D29" s="45"/>
       <c r="E29" s="45"/>
       <c r="F29" s="45"/>
@@ -3913,9 +6071,9 @@
       <c r="M29" s="45"/>
       <c r="N29" s="45"/>
     </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E30" s="46"/>
       <c r="F30" s="46"/>
@@ -3928,7 +6086,7 @@
       <c r="M30" s="46"/>
       <c r="N30" s="46"/>
     </row>
-    <row r="31" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D31" s="46"/>
       <c r="E31" s="46"/>
       <c r="F31" s="46"/>
@@ -3941,7 +6099,7 @@
       <c r="M31" s="46"/>
       <c r="N31" s="46"/>
     </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D32" s="46"/>
       <c r="E32" s="46"/>
       <c r="F32" s="46"/>
@@ -3974,18 +6132,18 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="44" t="s">
         <v>68</v>
       </c>
@@ -4007,7 +6165,7 @@
       <c r="R7" s="44"/>
       <c r="S7" s="44"/>
     </row>
-    <row r="8" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="43" t="s">
         <v>69</v>
       </c>
@@ -4029,7 +6187,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="43"/>
     </row>
-    <row r="9" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
@@ -4049,7 +6207,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="43"/>
     </row>
-    <row r="10" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="44" t="s">
         <v>70</v>
       </c>
@@ -4071,7 +6229,7 @@
       <c r="R10" s="44"/>
       <c r="S10" s="44"/>
     </row>
-    <row r="11" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -4091,7 +6249,7 @@
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
     </row>
-    <row r="12" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -4110,126 +6268,126 @@
       <c r="R12" s="23"/>
       <c r="S12" s="23"/>
     </row>
-    <row r="13" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
     </row>
-    <row r="15" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
     </row>
-    <row r="26" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14"/>
     </row>
-    <row r="29" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="17"/>
     </row>
-    <row r="33" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="15"/>
     </row>
-    <row r="42" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B8:S9"/>
@@ -4248,13 +6406,13 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="33.5" customWidth="1"/>
-    <col min="4" max="4" width="48.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" ht="21" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:4" ht="21" x14ac:dyDescent="0.25">
       <c r="C3" s="38" t="s">
         <v>63</v>
       </c>
@@ -4262,7 +6420,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="21" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:4" ht="21" x14ac:dyDescent="0.25">
       <c r="C4" s="38" t="s">
         <v>61</v>
       </c>
@@ -4270,7 +6428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="44" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:4" ht="42" x14ac:dyDescent="0.25">
       <c r="C5" s="39" t="s">
         <v>62</v>
       </c>
@@ -4278,15 +6436,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:4" ht="21" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:4" ht="21" x14ac:dyDescent="0.25">
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
     </row>
-    <row r="7" spans="3:4" ht="21" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:4" ht="21" x14ac:dyDescent="0.25">
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
     </row>
-    <row r="8" spans="3:4" ht="21" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:4" ht="21" x14ac:dyDescent="0.25">
       <c r="C8" s="38" t="s">
         <v>65</v>
       </c>
@@ -4294,7 +6452,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="3:4" ht="21" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:4" ht="21" x14ac:dyDescent="0.25">
       <c r="C9" s="38">
         <v>100</v>
       </c>
@@ -4302,7 +6460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:4" ht="21" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:4" ht="21" x14ac:dyDescent="0.25">
       <c r="C10" s="38">
         <v>200</v>
       </c>
@@ -4310,7 +6468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:4" ht="21" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:4" ht="21" x14ac:dyDescent="0.25">
       <c r="C11" s="38">
         <v>300</v>
       </c>
@@ -4331,16 +6489,16 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B3" s="35" t="s">
         <v>56</v>
       </c>
@@ -4357,7 +6515,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="36" t="s">
         <v>61</v>
       </c>
@@ -4374,7 +6532,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B5" s="36" t="s">
         <v>61</v>
       </c>
@@ -4391,7 +6549,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B6" s="36" t="s">
         <v>61</v>
       </c>
@@ -4408,7 +6566,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B7" s="36" t="s">
         <v>62</v>
       </c>
@@ -4425,7 +6583,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B8" s="36" t="s">
         <v>62</v>
       </c>
@@ -4442,7 +6600,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B9" s="36" t="s">
         <v>62</v>
       </c>
@@ -4468,22 +6626,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151AF991-D225-4A0B-90F0-C1C1F702C618}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.5" style="1"/>
+    <col min="1" max="1" width="31.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -4503,7 +6661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
         <v>0.7</v>
       </c>
@@ -4524,7 +6682,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>0.77</v>
       </c>
@@ -4545,7 +6703,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>0.77</v>
       </c>
@@ -4566,7 +6724,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>0.73</v>
       </c>
@@ -4587,7 +6745,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>0.76</v>
       </c>
@@ -4608,7 +6766,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>0.72</v>
       </c>
@@ -4629,7 +6787,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>0.75</v>
       </c>
@@ -4650,7 +6808,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>0.76</v>
       </c>
@@ -4671,7 +6829,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>0.74</v>
       </c>
@@ -4692,7 +6850,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>0.8</v>
       </c>
@@ -4713,7 +6871,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>0.78</v>
       </c>
@@ -4734,7 +6892,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>0.75</v>
       </c>
@@ -4755,7 +6913,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>0.8</v>
       </c>
@@ -4776,7 +6934,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>0.78</v>
       </c>
@@ -4797,7 +6955,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>0.77</v>
       </c>
@@ -4818,7 +6976,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>0.76</v>
       </c>
@@ -4839,7 +6997,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>0.73</v>
       </c>
@@ -4860,7 +7018,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>0.76</v>
       </c>
@@ -4881,7 +7039,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>0.76</v>
       </c>
@@ -4902,7 +7060,7 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>0.72</v>
       </c>
@@ -4923,7 +7081,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>0.8</v>
       </c>
@@ -4944,7 +7102,7 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>0.76</v>
       </c>
@@ -4965,7 +7123,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>0.76</v>
       </c>
@@ -4986,7 +7144,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>0.7</v>
       </c>
@@ -5005,9 +7163,9 @@
       <c r="F25" s="21">
         <v>0.7</v>
       </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="51"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>0.74</v>
       </c>
@@ -5028,7 +7186,7 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>0.79</v>
       </c>
@@ -5049,7 +7207,7 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>0.76</v>
       </c>
@@ -5070,7 +7228,7 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>0.8</v>
       </c>
@@ -5091,7 +7249,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>0.72</v>
       </c>
@@ -5112,7 +7270,7 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>0.73</v>
       </c>
@@ -5132,7 +7290,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <f>AVERAGE(A2:A31)</f>
         <v>0.75566666666666671</v>
@@ -5158,67 +7316,67 @@
         <v>0.69999999999999962</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
@@ -5232,22 +7390,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758748E3-782D-D446-96ED-D02996D58C10}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:P8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17.5" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" customWidth="1"/>
-    <col min="16" max="16" width="11.83203125" customWidth="1"/>
-    <col min="17" max="17" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>54</v>
       </c>
@@ -5273,7 +7431,7 @@
       </c>
       <c r="Q1" s="12"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="D2" s="3"/>
@@ -5287,7 +7445,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -5325,7 +7483,7 @@
         <v>0.69999999999999962</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -5363,7 +7521,7 @@
         <v>6.1848972002915346E-17</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
@@ -5401,7 +7559,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
@@ -5439,7 +7597,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
@@ -5477,7 +7635,7 @@
         <v>3.3876077124502211E-16</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>48</v>
       </c>
@@ -5515,7 +7673,7 @@
         <v>1.1475886013452219E-31</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
@@ -5553,7 +7711,7 @@
         <v>-2.1481481481481479</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>50</v>
       </c>
@@ -5591,7 +7749,7 @@
         <v>1.0534200859823297</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>51</v>
       </c>
@@ -5629,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
@@ -5667,7 +7825,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
@@ -5705,7 +7863,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -5743,7 +7901,7 @@
         <v>20.999999999999989</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -5781,7 +7939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
@@ -5819,7 +7977,7 @@
         <v>1.2649535087579814E-16</v>
       </c>
     </row>
-    <row r="21" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P21" t="s">
         <v>55</v>
       </c>
@@ -5831,26 +7989,26 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEE8415-32AE-F848-8F39-47C6574DD2E9}">
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" customWidth="1"/>
-    <col min="10" max="10" width="19.1640625" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>96</v>
       </c>
@@ -5858,7 +8016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0.7</v>
       </c>
@@ -5869,7 +8027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0.77</v>
       </c>
@@ -5877,7 +8035,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.77</v>
       </c>
@@ -5891,7 +8049,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.73</v>
       </c>
@@ -5905,7 +8063,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0.76</v>
       </c>
@@ -5913,7 +8071,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>0.72</v>
       </c>
@@ -5921,7 +8079,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>0.75</v>
       </c>
@@ -5932,7 +8090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0.76</v>
       </c>
@@ -5961,7 +8119,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0.74</v>
       </c>
@@ -5990,7 +8148,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>0.8</v>
       </c>
@@ -6013,7 +8171,7 @@
         <v>3.5955056179775365E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>0.78</v>
       </c>
@@ -6021,7 +8179,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>0.75</v>
       </c>
@@ -6029,7 +8187,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>0.8</v>
       </c>
@@ -6040,7 +8198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>0.78</v>
       </c>
@@ -6069,7 +8227,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>0.77</v>
       </c>
@@ -6098,7 +8256,7 @@
         <v>3.8942321312897401</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.76</v>
       </c>
@@ -6121,7 +8279,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.73</v>
       </c>
@@ -6136,7 +8294,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>0.76</v>
       </c>
@@ -6157,7 +8315,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.76</v>
       </c>
@@ -6165,7 +8323,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.72</v>
       </c>
@@ -6176,7 +8334,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.8</v>
       </c>
@@ -6187,7 +8345,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0.76</v>
       </c>
@@ -6201,7 +8359,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.76</v>
       </c>
@@ -6218,7 +8376,7 @@
         <v>3.8942321312897401</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.7</v>
       </c>
@@ -6226,7 +8384,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.74</v>
       </c>
@@ -6237,7 +8395,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.79</v>
       </c>
@@ -6245,7 +8403,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>0.76</v>
       </c>
@@ -6256,7 +8414,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.8</v>
       </c>
@@ -6271,7 +8429,7 @@
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>0.72</v>
       </c>
@@ -6291,7 +8449,7 @@
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>0.73</v>
       </c>
@@ -6311,7 +8469,7 @@
       <c r="K31" s="24"/>
       <c r="L31" s="24"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>0.78600000000000003</v>
       </c>
@@ -6331,7 +8489,7 @@
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>0.81</v>
       </c>
@@ -6350,7 +8508,7 @@
       <c r="K33" s="24"/>
       <c r="L33" s="24"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>0.80800000000000005</v>
       </c>
@@ -6370,7 +8528,7 @@
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>0.78800000000000003</v>
       </c>
@@ -6390,7 +8548,7 @@
       <c r="K35" s="24"/>
       <c r="L35" s="24"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>0.79400000000000004</v>
       </c>
@@ -6405,7 +8563,7 @@
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>0.82</v>
       </c>
@@ -6420,7 +8578,7 @@
       <c r="K37" s="24"/>
       <c r="L37" s="24"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>0.78200000000000003</v>
       </c>
@@ -6445,7 +8603,7 @@
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>0.8</v>
       </c>
@@ -6477,7 +8635,7 @@
       </c>
       <c r="L39" s="24"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>0.8</v>
       </c>
@@ -6492,7 +8650,7 @@
       <c r="K40" s="24"/>
       <c r="L40" s="24"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>0.80600000000000005</v>
       </c>
@@ -6509,7 +8667,7 @@
       </c>
       <c r="L41" s="24"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>0.8</v>
       </c>
@@ -6524,7 +8682,7 @@
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>0.79</v>
       </c>
@@ -6539,7 +8697,7 @@
       <c r="K43" s="24"/>
       <c r="L43" s="24"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>0.79</v>
       </c>
@@ -6554,7 +8712,7 @@
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>0.79</v>
       </c>
@@ -6569,7 +8727,7 @@
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>0.79</v>
       </c>
@@ -6584,7 +8742,7 @@
       <c r="K46" s="24"/>
       <c r="L46" s="24"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>0.8</v>
       </c>
@@ -6599,7 +8757,7 @@
       <c r="K47" s="24"/>
       <c r="L47" s="24"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>0.79600000000000004</v>
       </c>
@@ -6614,7 +8772,7 @@
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>0.79600000000000004</v>
       </c>
@@ -6622,7 +8780,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>0.79800000000000004</v>
       </c>
@@ -6630,7 +8788,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>0.78800000000000003</v>
       </c>
@@ -6638,7 +8796,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>0.81399999999999995</v>
       </c>
@@ -6646,7 +8804,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>0.77600000000000002</v>
       </c>
@@ -6654,7 +8812,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>0.80600000000000005</v>
       </c>
@@ -6662,7 +8820,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>0.77800000000000002</v>
       </c>
@@ -6670,7 +8828,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>0.77600000000000002</v>
       </c>
@@ -6678,7 +8836,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>0.78200000000000003</v>
       </c>
@@ -6686,7 +8844,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>0.77</v>
       </c>
@@ -6694,7 +8852,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>0.79800000000000004</v>
       </c>
@@ -6702,7 +8860,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>0.80600000000000005</v>
       </c>
@@ -6710,7 +8868,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>0.78800000000000003</v>
       </c>
@@ -6718,7 +8876,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>0.74199999999999999</v>
       </c>
@@ -6726,7 +8884,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>0.76200000000000001</v>
       </c>
@@ -6734,7 +8892,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>0.754</v>
       </c>
@@ -6742,7 +8900,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>0.748</v>
       </c>
@@ -6750,7 +8908,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>0.77</v>
       </c>
@@ -6758,7 +8916,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>0.77400000000000002</v>
       </c>
@@ -6766,7 +8924,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>0.754</v>
       </c>
@@ -6774,7 +8932,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>0.76400000000000001</v>
       </c>
@@ -6782,7 +8940,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>0.77800000000000002</v>
       </c>
@@ -6790,7 +8948,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>0.73599999999999999</v>
       </c>
@@ -6798,7 +8956,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>0.73399999999999999</v>
       </c>
@@ -6806,7 +8964,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>0.74399999999999999</v>
       </c>
@@ -6814,7 +8972,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>0.77400000000000002</v>
       </c>
@@ -6822,7 +8980,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>0.77600000000000002</v>
       </c>
@@ -6830,7 +8988,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>0.76800000000000002</v>
       </c>
@@ -6838,7 +8996,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>0.75600000000000001</v>
       </c>
@@ -6846,7 +9004,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>0.78800000000000003</v>
       </c>
@@ -6854,7 +9012,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>0.78</v>
       </c>
@@ -6862,7 +9020,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>0.76400000000000001</v>
       </c>
@@ -6870,7 +9028,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>0.77400000000000002</v>
       </c>
@@ -6878,7 +9036,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>0.75600000000000001</v>
       </c>
@@ -6886,7 +9044,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>0.76600000000000001</v>
       </c>
@@ -6894,7 +9052,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>0.77400000000000002</v>
       </c>
@@ -6902,7 +9060,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>0.72</v>
       </c>
@@ -6910,7 +9068,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>0.78</v>
       </c>
@@ -6918,7 +9076,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>0.78200000000000003</v>
       </c>
@@ -6926,7 +9084,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>0.77400000000000002</v>
       </c>
@@ -6934,7 +9092,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>0.73199999999999998</v>
       </c>
@@ -6942,7 +9100,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>0.77</v>
       </c>
@@ -6950,12 +9108,22 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>0.77</v>
       </c>
       <c r="B91" s="2">
         <v>0.7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="50">
+        <f>AVERAGE(A2:A91)</f>
+        <v>0.7706666666666665</v>
+      </c>
+      <c r="B92" s="49">
+        <f>AVERAGE(B2:B91)</f>
+        <v>0.72666666666666757</v>
       </c>
     </row>
   </sheetData>
@@ -6970,15 +9138,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>215900</xdr:colOff>
+                <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>32</xdr:row>
-                <xdr:rowOff>25400</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>393700</xdr:colOff>
+                <xdr:colOff>390525</xdr:colOff>
                 <xdr:row>35</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -6993,609 +9161,594 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A4753A-FBCB-FE40-A433-D57FAB657F0E}">
-  <dimension ref="A1:N41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1BD3E2-D83C-458C-8587-07F63F6A2C0C}">
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0.74199999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
         <v>0.77</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="B3" s="21">
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
         <v>0.77</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="B4" s="21">
+        <v>0.754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
         <v>0.73</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="B5" s="21">
+        <v>0.748</v>
+      </c>
+      <c r="F5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
         <v>0.76</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="B6" s="21">
+        <v>0.77</v>
+      </c>
+      <c r="F6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
         <v>0.72</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="B7" s="21">
+        <v>0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="B8" s="21">
+        <v>0.754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>0.76</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="F9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="B10" s="21">
+        <v>0.77800000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="B11" s="21">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
+        <v>0.78</v>
+      </c>
+      <c r="B12" s="21">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
         <v>0.75</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="B13" s="21">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="3">
+        <v>30</v>
+      </c>
+      <c r="H13" s="3">
+        <v>22.67</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.75566666666666671</v>
+      </c>
+      <c r="J13" s="3">
+        <v>8.1160919540230049E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="21">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="4">
+        <v>30</v>
+      </c>
+      <c r="H14" s="4">
+        <v>22.864000000000001</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.76213333333333333</v>
+      </c>
+      <c r="J14" s="4">
+        <v>2.8936091954023043E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
+        <v>0.78</v>
+      </c>
+      <c r="B15" s="21">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
+        <v>0.77</v>
+      </c>
+      <c r="B16" s="21">
+        <v>0.76800000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
         <v>0.76</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="B17" s="21">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
+        <v>0.73</v>
+      </c>
+      <c r="B18" s="21">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
+        <v>0.76</v>
+      </c>
+      <c r="B19" s="21">
+        <v>0.78</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="3">
+        <v>6.2726666666665376E-4</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>6.2726666666665376E-4</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1.1394799153097745</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.29018532033242467</v>
+      </c>
+      <c r="L19" s="3">
+        <v>4.0068728863327339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>0.76</v>
+      </c>
+      <c r="B20" s="21">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3.1928133333333393E-2</v>
+      </c>
+      <c r="H20" s="3">
+        <v>58</v>
+      </c>
+      <c r="I20" s="3">
+        <v>5.5048505747126535E-4</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <v>0.72</v>
+      </c>
+      <c r="B21" s="21">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21">
         <v>0.8</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="3">
-        <v>30</v>
-      </c>
-      <c r="I11" s="3">
-        <v>22.67</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0.75566666666666671</v>
-      </c>
-      <c r="K11" s="3">
-        <v>8.1160919540230049E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="B22" s="21">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="4">
+        <v>3.2555400000000047E-2</v>
+      </c>
+      <c r="H22" s="4">
+        <v>59</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
+        <v>0.76</v>
+      </c>
+      <c r="B23" s="21">
+        <v>0.76600000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
+        <v>0.76</v>
+      </c>
+      <c r="B24" s="21">
+        <v>0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="B25" s="21">
+        <v>0.72</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="B26" s="21">
         <v>0.78</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="4">
-        <v>30</v>
-      </c>
-      <c r="I12" s="4">
-        <v>22.199999999999989</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0.73999999999999966</v>
-      </c>
-      <c r="K12" s="42">
-        <v>1.1475886013452219E-31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="F26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="21">
+        <v>0.79</v>
+      </c>
+      <c r="B27" s="21">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="21">
+        <v>0.76</v>
+      </c>
+      <c r="B28" s="21">
+        <v>0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="21">
         <v>0.8</v>
       </c>
-      <c r="B14" s="2">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="B29" s="21">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="F29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="21">
+        <v>0.72</v>
+      </c>
+      <c r="B30" s="21">
         <v>0.77</v>
       </c>
-      <c r="B16" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3.6816666666666595E-3</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1</v>
-      </c>
-      <c r="J17" s="3">
-        <v>3.6816666666666595E-3</v>
-      </c>
-      <c r="K17" s="3">
-        <v>9.0725109757824303</v>
-      </c>
-      <c r="L17" s="3">
-        <v>3.8404708284200807E-3</v>
-      </c>
-      <c r="M17" s="3">
-        <v>4.0068728863327339</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="21">
         <v>0.73</v>
       </c>
-      <c r="B18" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2.3536666666666713E-2</v>
-      </c>
-      <c r="I18" s="3">
-        <v>58</v>
-      </c>
-      <c r="J18" s="3">
-        <v>4.0580459770115024E-4</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="4">
-        <v>2.7218333333333372E-2</v>
-      </c>
-      <c r="I20" s="4">
-        <v>59</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G28" s="32" t="s">
+      <c r="B31" s="21">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="35" spans="6:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="F35" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="H30" s="11">
-        <v>30</v>
-      </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H31" s="11">
-        <v>30</v>
-      </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G32" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H32" s="11">
-        <v>58</v>
-      </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-    </row>
-    <row r="33" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G33" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="H33" s="11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-    </row>
-    <row r="34" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G34" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="H34" s="11">
-        <f>+_xlfn.T.INV(1-H33,H32)</f>
-        <v>2.663286953537658</v>
-      </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-    </row>
-    <row r="35" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G35" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="H35" s="11">
-        <f>H34*SQRT(J18*(1/H30+1/H31))</f>
-        <v>1.3852584682042906E-2</v>
-      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-    </row>
-    <row r="36" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
+    </row>
+    <row r="36" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
       <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-    </row>
-    <row r="37" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G37" s="11"/>
+    </row>
+    <row r="37" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F37" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" s="11">
+        <v>30</v>
+      </c>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-    </row>
-    <row r="38" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G38" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="K38" s="11" t="s">
-        <v>113</v>
-      </c>
+    </row>
+    <row r="38" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F38" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="11">
+        <v>30</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
       <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-    </row>
-    <row r="39" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G39" s="34">
-        <f>J11</f>
-        <v>0.75566666666666671</v>
-      </c>
-      <c r="H39" s="11">
-        <f>J12</f>
-        <v>0.73999999999999966</v>
-      </c>
-      <c r="I39" s="11">
-        <f>H35</f>
-        <v>1.3852584682042906E-2</v>
-      </c>
-      <c r="J39" s="11">
-        <f>(G39-H39)-I39</f>
-        <v>1.8140819846241447E-3</v>
-      </c>
-      <c r="K39" s="11">
-        <f>(G39-H39)+I39</f>
-        <v>2.9519251348709957E-2</v>
-      </c>
-      <c r="L39" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-    </row>
-    <row r="40" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G40" s="11"/>
+    </row>
+    <row r="39" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F39" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" s="11">
+        <v>58</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+    </row>
+    <row r="40" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F40" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-    </row>
-    <row r="41" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G41" s="11"/>
+    </row>
+    <row r="41" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F41" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="11">
+        <f>+_xlfn.T.INV(1-G40,G39)</f>
+        <v>2.663286953537658</v>
+      </c>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
-      <c r="L41" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F42" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="11">
+        <f>G41*SQRT(I20*(1/G37+1/G38))</f>
+        <v>1.6134113193629857E-2</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+    </row>
+    <row r="43" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+    </row>
+    <row r="44" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+    </row>
+    <row r="45" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F45" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+    </row>
+    <row r="46" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F46" s="48">
+        <f>I13</f>
+        <v>0.75566666666666671</v>
+      </c>
+      <c r="G46" s="47">
+        <f>I14</f>
+        <v>0.76213333333333333</v>
+      </c>
+      <c r="H46" s="11">
+        <f>G42</f>
+        <v>1.6134113193629857E-2</v>
+      </c>
+      <c r="I46" s="11">
+        <f>(F46-G46)-H46</f>
+        <v>-2.2600779860296478E-2</v>
+      </c>
+      <c r="J46" s="11">
+        <f>(F46-G46)+H46</f>
+        <v>9.6674465269632366E-3</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L46" s="11"/>
+    </row>
+    <row r="47" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+    </row>
+    <row r="48" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L48" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7604,613 +9757,616 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70107621-CE2B-3141-8A91-A0B3571AAC1E}">
-  <dimension ref="A1:N43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60004D01-844C-4D32-81EF-043F79EFBCF6}">
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:N43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="26.5" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="40.5703125" customWidth="1"/>
+    <col min="8" max="8" width="45.42578125" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="B2" s="21">
         <v>0.78600000000000003</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+      <c r="E2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>0.77</v>
+      </c>
+      <c r="B3" s="21">
         <v>0.81</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>0.77</v>
+      </c>
+      <c r="B4" s="21">
         <v>0.80800000000000005</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>0.73</v>
+      </c>
+      <c r="B5" s="21">
         <v>0.78800000000000003</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
+      <c r="F5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>0.76</v>
+      </c>
+      <c r="B6" s="21">
         <v>0.79400000000000004</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+      <c r="F6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>0.72</v>
+      </c>
+      <c r="B7" s="21">
         <v>0.82</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="B8" s="21">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>0.76</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="F9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="B10" s="21">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="B11" s="21">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
+        <v>0.78</v>
+      </c>
+      <c r="B12" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="21">
+        <v>0.79</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="3">
+        <v>30</v>
+      </c>
+      <c r="H13" s="3">
+        <v>22.67</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.75566666666666671</v>
+      </c>
+      <c r="J13" s="3">
+        <v>8.1160919540230049E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="21">
+        <v>0.79</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="4">
+        <v>30</v>
+      </c>
+      <c r="H14" s="4">
+        <v>23.825999999999993</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.7941999999999998</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1.4299310344827577E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
+        <v>0.78</v>
+      </c>
+      <c r="B15" s="21">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
+        <v>0.77</v>
+      </c>
+      <c r="B16" s="21">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
+        <v>0.76</v>
+      </c>
+      <c r="B17" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
+        <v>0.73</v>
+      </c>
+      <c r="B18" s="21">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
+        <v>0.76</v>
+      </c>
+      <c r="B19" s="21">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2.2272266666666707E-2</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2.2272266666666707E-2</v>
+      </c>
+      <c r="J19" s="3">
+        <v>46.662922755338933</v>
+      </c>
+      <c r="K19" s="3">
+        <v>5.6311481107757548E-9</v>
+      </c>
+      <c r="L19" s="3">
+        <v>4.0068728863327339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>0.76</v>
+      </c>
+      <c r="B20" s="21">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2.7683466666666712E-2</v>
+      </c>
+      <c r="H20" s="3">
+        <v>58</v>
+      </c>
+      <c r="I20" s="3">
+        <v>4.7730114942528813E-4</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <v>0.72</v>
+      </c>
+      <c r="B21" s="21">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="B22" s="21">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="4">
+        <v>4.9955733333333419E-2</v>
+      </c>
+      <c r="H22" s="4">
+        <v>59</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
+        <v>0.76</v>
+      </c>
+      <c r="B23" s="21">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
+        <v>0.76</v>
+      </c>
+      <c r="B24" s="21">
+        <v>0.80600000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="B25" s="21">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="B26" s="21">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="F26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="21">
+        <v>0.79</v>
+      </c>
+      <c r="B27" s="21">
         <v>0.78200000000000003</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="21">
+        <v>0.76</v>
+      </c>
+      <c r="B28" s="21">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="21">
         <v>0.8</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+      <c r="B29" s="21">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="21">
+        <v>0.72</v>
+      </c>
+      <c r="B30" s="21">
         <v>0.80600000000000005</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="3">
-        <v>30</v>
-      </c>
-      <c r="I11" s="3">
-        <v>23.825999999999993</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0.7941999999999998</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1.4299310344827577E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="4">
-        <v>30</v>
-      </c>
-      <c r="I12" s="4">
-        <v>22.199999999999989</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0.73999999999999966</v>
-      </c>
-      <c r="K12" s="4">
-        <v>1.1475886013452219E-31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
-        <v>0.79</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
-        <v>0.79</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>0.79</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
-        <v>0.79</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="3">
-        <v>4.4064600000000093E-2</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1</v>
-      </c>
-      <c r="J17" s="3">
-        <v>4.4064600000000093E-2</v>
-      </c>
-      <c r="K17" s="3">
-        <v>616.31783543937661</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1.3789311728584997E-32</v>
-      </c>
-      <c r="M17" s="3">
-        <v>4.0068728863327339</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4.1467999999999974E-3</v>
-      </c>
-      <c r="I18" s="3">
-        <v>58</v>
-      </c>
-      <c r="J18" s="3">
-        <v>7.1496551724137887E-5</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="4">
-        <v>4.8211400000000092E-2</v>
-      </c>
-      <c r="I20" s="4">
-        <v>59</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="21">
+        <v>0.73</v>
+      </c>
+      <c r="B31" s="21">
         <v>0.78800000000000003</v>
       </c>
-      <c r="B21" s="2">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
-        <v>0.77</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G30" s="32" t="s">
+    </row>
+    <row r="35" spans="6:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="F35" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="11">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G32" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="H32" s="11">
-        <v>30</v>
-      </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-    </row>
-    <row r="33" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G33" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H33" s="11">
-        <v>30</v>
-      </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-    </row>
-    <row r="34" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G34" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H34" s="11">
-        <v>58</v>
-      </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-    </row>
-    <row r="35" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G35" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="H35" s="11">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-    </row>
-    <row r="36" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G36" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="H36" s="11">
-        <f>_xlfn.T.INV(1-H35,H34)</f>
-        <v>2.663286953537658</v>
-      </c>
+    </row>
+    <row r="36" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-    </row>
-    <row r="37" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G37" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="H37" s="11">
-        <f>H36*SQRT(J18*(1/H32+1/H33))</f>
-        <v>5.8145335434619206E-3</v>
-      </c>
+    </row>
+    <row r="37" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F37" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" s="11">
+        <v>30</v>
+      </c>
+      <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-    </row>
-    <row r="38" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
+    </row>
+    <row r="38" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F38" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="11">
+        <v>30</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-    </row>
-    <row r="39" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G39" s="11"/>
+    </row>
+    <row r="39" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F39" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" s="11">
+        <v>58</v>
+      </c>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-    </row>
-    <row r="40" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G40" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>113</v>
-      </c>
+    </row>
+    <row r="40" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F40" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-    </row>
-    <row r="41" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G41" s="34">
-        <f>J11</f>
-        <v>0.7941999999999998</v>
-      </c>
-      <c r="H41" s="11">
-        <f>J12</f>
-        <v>0.73999999999999966</v>
-      </c>
-      <c r="I41" s="11">
-        <f>H37</f>
-        <v>5.8145335434619206E-3</v>
-      </c>
-      <c r="J41" s="11">
-        <f>(G41-H41)-I41</f>
-        <v>4.8385466456538219E-2</v>
-      </c>
-      <c r="K41" s="11">
-        <f>(G41-H41)+I41</f>
-        <v>6.0014533543462055E-2</v>
-      </c>
-      <c r="L41" s="11" t="s">
-        <v>114</v>
-      </c>
+    </row>
+    <row r="41" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F41" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="11">
+        <f>+_xlfn.T.INV(1-G40,G39)</f>
+        <v>2.663286953537658</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
       <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-    </row>
-    <row r="42" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G42" s="11"/>
+    </row>
+    <row r="42" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F42" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="11">
+        <f>G41*SQRT(I20*(1/G37+1/G38))</f>
+        <v>1.5023411819597224E-2</v>
+      </c>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-    </row>
-    <row r="43" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
+    </row>
+    <row r="43" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
       <c r="K43" s="11"/>
-      <c r="L43" s="11" t="s">
-        <v>115</v>
-      </c>
+      <c r="L43" s="11"/>
       <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
+    </row>
+    <row r="44" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+    </row>
+    <row r="45" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F45" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+    </row>
+    <row r="46" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F46" s="48">
+        <f>I13</f>
+        <v>0.75566666666666671</v>
+      </c>
+      <c r="G46" s="47">
+        <f>I14</f>
+        <v>0.7941999999999998</v>
+      </c>
+      <c r="H46" s="11">
+        <f>G42</f>
+        <v>1.5023411819597224E-2</v>
+      </c>
+      <c r="I46" s="11">
+        <f>(F46-G46)-H46</f>
+        <v>-5.355674515293031E-2</v>
+      </c>
+      <c r="J46" s="11">
+        <f>(F46-G46)+H46</f>
+        <v>-2.3509921513735862E-2</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+    </row>
+    <row r="47" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+    </row>
+    <row r="48" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Experiment/Experiment decision tree 1.xlsx
+++ b/Experiment/Experiment decision tree 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ProjectX\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D157C7-3F1E-43DC-9ED5-47DAEAD0395A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D46882-3353-4C24-A6E3-A5700CA4D530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="5" xr2:uid="{0C6FF0CF-D8F2-4F3B-8D3B-7285AD9AA1EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{0C6FF0CF-D8F2-4F3B-8D3B-7285AD9AA1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Integrantes" sheetId="15" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="144">
   <si>
     <t>Tratamiento #1</t>
   </si>
@@ -651,6 +651,9 @@
   </si>
   <si>
     <t xml:space="preserve">Para realizar el experimento tuvimos como variables de estudio la cantidad datos para predecir y el tipo de árbol de decisión usado, comparando la precisión de cada repetición , en base a esto con los resultados que nos arrojo el experimento y  una gran cantidad usando la tecnica de ANOVA,  nos dio como resultado que para una gran cantidad de datos a predecir es mas preciso el arbol de decision implementado por nosotros que el de la libreria , no obstante esto ocurrio cuando evaluamos una entrada pequeña, mediana y todo el dataset.        </t>
+  </si>
+  <si>
+    <t>No hay diferencia entre las medias</t>
   </si>
 </sst>
 </file>
@@ -918,6 +921,11 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -930,11 +938,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2710,7 +2713,7 @@
         <xdr:cNvPr id="2" name="Object 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C29A0A89-1946-4885-90AE-9955BF7AE451}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2759,7 +2762,7 @@
         <xdr:cNvPr id="2" name="Object 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB40693-764A-4F5A-949F-B755C28C16BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2808,7 +2811,7 @@
         <xdr:cNvPr id="2" name="Object 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63C73A5-69E2-42ED-8CE9-BB57AE7BE606}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2857,7 +2860,7 @@
         <xdr:cNvPr id="2" name="Object 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2906,7 +2909,7 @@
         <xdr:cNvPr id="2" name="Object 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2955,7 +2958,7 @@
         <xdr:cNvPr id="3" name="Object 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5791,326 +5794,326 @@
       </c>
     </row>
     <row r="9" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
     </row>
     <row r="10" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
     </row>
     <row r="11" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
     </row>
     <row r="12" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
     </row>
     <row r="13" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
     </row>
     <row r="14" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
     </row>
     <row r="15" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
     </row>
     <row r="16" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
     </row>
     <row r="22" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
     </row>
     <row r="23" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
     </row>
     <row r="24" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
     </row>
     <row r="25" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
     </row>
     <row r="26" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
     </row>
     <row r="28" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
     </row>
     <row r="29" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D30" s="46" t="s">
+      <c r="D30" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
     </row>
     <row r="31" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
     </row>
     <row r="32" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6144,90 +6147,90 @@
     </row>
     <row r="6" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
     </row>
     <row r="8" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
     </row>
     <row r="9" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
     </row>
     <row r="10" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
     </row>
     <row r="11" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="22"/>
@@ -7163,7 +7166,7 @@
       <c r="F25" s="21">
         <v>0.7</v>
       </c>
-      <c r="G25" s="51"/>
+      <c r="G25" s="47"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
@@ -7390,7 +7393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758748E3-782D-D446-96ED-D02996D58C10}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -9117,11 +9120,11 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="50">
+      <c r="A92" s="46">
         <f>AVERAGE(A2:A91)</f>
         <v>0.7706666666666665</v>
       </c>
-      <c r="B92" s="49">
+      <c r="B92" s="45">
         <f>AVERAGE(B2:B91)</f>
         <v>0.72666666666666757</v>
       </c>
@@ -9164,8 +9167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1BD3E2-D83C-458C-8587-07F63F6A2C0C}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9705,11 +9708,11 @@
       <c r="L45" s="11"/>
     </row>
     <row r="46" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F46" s="48">
+      <c r="F46" s="44">
         <f>I13</f>
         <v>0.75566666666666671</v>
       </c>
-      <c r="G46" s="47">
+      <c r="G46" s="43">
         <f>I14</f>
         <v>0.76213333333333333</v>
       </c>
@@ -9726,7 +9729,7 @@
         <v>9.6674465269632366E-3</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="L46" s="11"/>
     </row>
@@ -9760,7 +9763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60004D01-844C-4D32-81EF-043F79EFBCF6}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F5" sqref="F5:F6"/>
     </sheetView>
   </sheetViews>
@@ -10320,11 +10323,11 @@
       <c r="M45" s="11"/>
     </row>
     <row r="46" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F46" s="48">
+      <c r="F46" s="44">
         <f>I13</f>
         <v>0.75566666666666671</v>
       </c>
-      <c r="G46" s="47">
+      <c r="G46" s="43">
         <f>I14</f>
         <v>0.7941999999999998</v>
       </c>
